--- a/foodtable/2.xlsx
+++ b/foodtable/2.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2. 복리후생\2017년\3. 식당\2020년 식단표\0316\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2. 복리후생\2017년\3. 식당\2020년 식단표\0323\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="675" yWindow="-105" windowWidth="17580" windowHeight="12120"/>
+    <workbookView xWindow="360" yWindow="105" windowWidth="18180" windowHeight="12120"/>
   </bookViews>
   <sheets>
-    <sheet name="03월16일" sheetId="1" r:id="rId1"/>
+    <sheet name="03월23일" sheetId="1" r:id="rId1"/>
     <sheet name="영문" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'03월16일'!$A$1:$H$25</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'03월23일'!$A$1:$H$25</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">영문!$A$1:$H$25</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="150">
   <si>
     <t xml:space="preserve">주 간 식 단 표 </t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -35,7 +35,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">A,B코너
+      <t xml:space="preserve">A코너
 </t>
     </r>
     <r>
@@ -55,144 +55,92 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>추가밥</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;마늘보쌈정식&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;면역튼튼보양&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;집반찬너낌&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>쑥갓어묵국</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>우동국물</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>백미밥</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>숯불산적두부구이</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>간짜장면&amp;삶은계란</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>도토리묵채국</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>장각삼계탕</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>얼큰쇠고깃국</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>매콤순대볶음</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>프렌치토스트</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>마늘보쌈</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>매콤쫄면</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>고등어구이&amp;와사비S</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>닭가슴살카레소스</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;블루베리요거트</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>배추&amp;상추&amp;쌈장</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>채소장아찌</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>오징어초무침</t>
+    <t>사색나물비빔밥</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>새알미역국</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>달걀프라이&amp;약고추장</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>얼큰시락국</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>파송송달걀국</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>미소장국</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>해물동그랑땡전&amp;초장</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>두부된장국</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>충무식오징어어묵무침</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>미트볼스테이크소스조림</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>제육두루치기</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>양배추찜&amp;쌈장</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>꿀탕수육</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>생김&amp;깨간장</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>감자시래기지짐이</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼색달걀찜</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>돈육감자짜글이</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>얼린쿨스타</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>구운손만두&amp;양념장</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>야채고로케&amp;케찹</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>참나물묵무침</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>배추김치</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>단무지무침</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>무말랭이</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>도시락김</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>요구르트</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>달걀프라이</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>음료</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>누룽지탕/망고쥬스</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>누룽지탕/아메리카노</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>누룽지탕/유자차</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>누룽지탕/코코아</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>누룽지탕/수정과</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>석식</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -212,67 +160,271 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>후리가케밥</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>돼지순대국밥+소면</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>크림스프&amp;마늘바게트</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;비벼먹는김치찌개&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>뚝동태알곤탕</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;다데기</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>토마토스파게티</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>쇠고기떡만둣국</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>달콤어묵채조림</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>고구마별떡맛탕</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>달걀프라이&amp;김가루</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>새콤무생채</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>봄동겉절이</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>사천탕수육</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>돼지바맛모닝빵</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>챔기름열무겉절이</t>
+    <t>우동국물</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가밥</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>치킨너겟카레라이스</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>백미밥</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>굴소스야채볶음밥</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>김밥볶음밥</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>육전잔치국수&amp;양념장</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>달걀프라이</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>차슈나가사끼짬뽕</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>미니우동</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>유부주머니꼬치어묵우동</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>데리야끼타코야키</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>설탕핫도그&amp;케찹</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>시금치샐러드피자</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>갈릭크리미핫도그</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>그린샐러드</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>생채겉절이</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>얇게썬단무지</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>단팥뿌린찐빵</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>음료</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>누룽지탕/망고쥬스</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>누룽지탕/아메리카노</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>누룽지탕/유자차</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>누룽지탕/코코아</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>누룽지탕/수정과</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>석식</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="35"/>
+        <color rgb="FFF20051"/>
+        <rFont val="HY강M"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="35"/>
+        <color rgb="FF17616B"/>
+        <rFont val="HY강M"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>요</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="35"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="HY강M"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="35"/>
+        <color theme="8" tint="-0.249977111117893"/>
+        <rFont val="HY강M"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>은</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="35"/>
+        <color theme="6"/>
+        <rFont val="HY강M"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>다</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="35"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="HY강M"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>먹</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="35"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="HY강M"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>는</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="35"/>
+        <color theme="7" tint="-0.249977111117893"/>
+        <rFont val="HY강M"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>날</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="35"/>
+        <rFont val="HY강M"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>짜장밥</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>뚝샤브샤브버섯탕</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>우렁강된장</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>팝콘치킨마요덮밥</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>치킨커틀렛오므라이스</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>비빔만두</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;양념장</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>열무김치비빔국수</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>오이부추무침</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>콩나물막국수</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>참치할라피뇨부르스게타</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>고구마고로케&amp;스윗칠리S</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>닭다리모양만두</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>컵과일</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>포기김치</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -322,6 +474,115 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">A코너
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="32"/>
+        <rFont val="HY강M"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>(4,500원)</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Muti-grain Rice</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seasoend Cirsium Bibimbab</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sea Mustard Soup</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fried Egg&amp;hot pepper paste</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dried Radish Green Soup</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>egg Soup</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Miso Soup</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Korea Style Meatball</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Soybean Paste Sauce</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stir-fried Sauid Fishcake</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Braised Meatball</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stir-fried Pork</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Steamed Cabbage</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sweet and Sour Pork</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Laver&amp;Marinade</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dried Radish Greens Stew</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Steamed Egg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Braised Potatoes</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Frozen Yogurt</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stir-fried Dumplings</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vegetable Croquette</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seasoned Acorn Jelly Salad</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kimchi</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">B코너
 </t>
     </r>
@@ -338,7 +599,7 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Muti-grain Rice</t>
+    <t>Udon Soup</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -346,22 +607,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;Set Menu&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;Immunizing Food&gt;</t>
-  </si>
-  <si>
-    <t>&lt;Home-made Side Dishes&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fish Cake Soup</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Udon Soup</t>
+    <t>Chicken Nugget Curried Rice</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -369,93 +615,63 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Rice</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Grilled Meat&amp;Tofu</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>BlackBean sauce Noodles</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Acorn Jelly Soup</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Samgyetang</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Spicy Beef Soup</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stir-fried Korean Sausage</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>French Toast</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Boiled Pork Slices</t>
-  </si>
-  <si>
-    <t>Buckwheat Noodles</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Grilled Mackrerel</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Chicken Curry</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Blueberry Yogurt</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cabbage&amp;Tettuce</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Picled Vegetables</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Squid with Vinegar Dressing</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Kimchi</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pickled Radish</t>
-  </si>
-  <si>
-    <t>Seasoned Radish</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Kimchi</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Laver</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Yogurt        </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fried Egg</t>
+    <t>Oyster Sauce Fried Rice</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>fried Gimbap Rice</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pork Pancake Banquet Noodles</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fried Eggs</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Char Siu Nagasaki Chanpon</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mini Udon</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>fried Tofu Udon</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Teriyaki Takoyaki</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hotdog&amp;Ketchup</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spinach Salad Pizza</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Galic Creamy Corndog</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Green Salad</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seasoned Vegetable</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seasoned Danmuji</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Steamed Bun</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -487,80 +703,232 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Furigake Rice</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pork &amp; Rice Soup+noodles</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cream Soup&amp;Garlic Baguette</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Kimchi Stew with</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pollack Soup</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;marinade</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tomato Spaghetti</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rice Cake with Dumplings, Beef</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stir-fried Fish Cake</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sugar Glazed Sweet Potato</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="35"/>
+        <color rgb="FFF20051"/>
+        <rFont val="HY강M"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>Day</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="35"/>
+        <rFont val="HY강M"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="35"/>
+        <color rgb="FF00B050"/>
+        <rFont val="HY강M"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>without</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="35"/>
+        <rFont val="HY강M"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="35"/>
+        <color rgb="FF376CBB"/>
+        <rFont val="HY강M"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>any</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="35"/>
+        <rFont val="HY강M"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="35"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="HY강M"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>Leftover</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="35"/>
+        <rFont val="HY강M"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Black-bean Sauce Rice</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Udon Soup</t>
   </si>
   <si>
     <t>Fried Egg</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Fried Egg&amp;Seaweed Powder</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Seasoned Vegetable</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pickled Onion</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yogurt</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sweet and Sour Pork</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>a roll of Honey Bread</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sliced Radish Kimchi</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Seasoend Young Radish</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>Mushroom Shabu-Shabu</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chicken Mayo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chicken Cutlet Omelet</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fried Dumplings with Spicy S</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;Marinade</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spicy Noodles &amp;Young Radish</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seasoned Cucumber</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spicy Cold Chewy Noodles</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tuna Jalapeno Bruschetta</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sweet Potato Crouette</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shape of Chicken Dumplings</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="35"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="HY강M"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="35"/>
+        <color rgb="FFC00000"/>
+        <rFont val="HY강M"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="35"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="HY강M"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>Cup</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="35"/>
+        <color rgb="FFC00000"/>
+        <rFont val="HY강M"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="35"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="HY강M"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>of</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="35"/>
+        <color rgb="FFC00000"/>
+        <rFont val="HY강M"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="35"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="HY강M"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">Fruit </t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kimchi</t>
   </si>
   <si>
     <t>4,500원</t>
@@ -581,10 +949,6 @@
   <si>
     <t>* Reducing the amount of food discarded will make the diet richer.</t>
     <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">요구르트         </t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -594,7 +958,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="38">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -692,8 +1056,24 @@
       <charset val="129"/>
     </font>
     <font>
+      <b/>
+      <sz val="35"/>
+      <color rgb="FFC00000"/>
+      <name val="HY강M"/>
+      <family val="1"/>
+      <charset val="129"/>
+    </font>
+    <font>
       <sz val="20"/>
       <color theme="1"/>
+      <name val="HY강M"/>
+      <family val="1"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="35"/>
+      <color rgb="FFFF0066"/>
       <name val="HY강M"/>
       <family val="1"/>
       <charset val="129"/>
@@ -709,7 +1089,7 @@
     <font>
       <b/>
       <sz val="35"/>
-      <color rgb="FFC00000"/>
+      <color rgb="FFF20051"/>
       <name val="HY강M"/>
       <family val="1"/>
       <charset val="129"/>
@@ -717,7 +1097,55 @@
     <font>
       <b/>
       <sz val="35"/>
-      <color rgb="FFFF6600"/>
+      <color rgb="FF17616B"/>
+      <name val="HY강M"/>
+      <family val="1"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="35"/>
+      <color rgb="FFFFC000"/>
+      <name val="HY강M"/>
+      <family val="1"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="35"/>
+      <color theme="8" tint="-0.249977111117893"/>
+      <name val="HY강M"/>
+      <family val="1"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="35"/>
+      <color theme="6"/>
+      <name val="HY강M"/>
+      <family val="1"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="35"/>
+      <color rgb="FF7030A0"/>
+      <name val="HY강M"/>
+      <family val="1"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="35"/>
+      <color rgb="FFFF0000"/>
+      <name val="HY강M"/>
+      <family val="1"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="35"/>
+      <color theme="7" tint="-0.249977111117893"/>
       <name val="HY강M"/>
       <family val="1"/>
       <charset val="129"/>
@@ -781,15 +1209,32 @@
     </font>
     <font>
       <b/>
-      <sz val="35"/>
-      <color rgb="FFEB5807"/>
+      <sz val="26"/>
+      <color rgb="FFC00000"/>
       <name val="HY강M"/>
       <family val="1"/>
       <charset val="129"/>
     </font>
     <font>
       <b/>
-      <sz val="26"/>
+      <sz val="35"/>
+      <color rgb="FF00B050"/>
+      <name val="HY강M"/>
+      <family val="1"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="35"/>
+      <color rgb="FF376CBB"/>
+      <name val="HY강M"/>
+      <family val="1"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="35"/>
+      <color rgb="FFCC0000"/>
       <name val="HY강M"/>
       <family val="1"/>
       <charset val="129"/>
@@ -833,7 +1278,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -888,9 +1333,29 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="double">
+        <color theme="6" tint="-0.499984740745262"/>
+      </right>
+      <top style="double">
+        <color theme="6" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color theme="6" tint="-0.499984740745262"/>
       </left>
+      <right style="double">
+        <color theme="6" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="double">
         <color theme="6" tint="-0.499984740745262"/>
       </right>
@@ -925,19 +1390,10 @@
       <right style="double">
         <color theme="6" tint="-0.499984740745262"/>
       </right>
-      <top style="double">
+      <top/>
+      <bottom style="double">
         <color theme="6" tint="-0.499984740745262"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="double">
-        <color theme="6" tint="-0.499984740745262"/>
-      </right>
-      <top/>
-      <bottom/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -948,16 +1404,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -985,28 +1441,37 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1015,70 +1480,70 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="32" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="24" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1087,14 +1552,14 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1194,59 +1659,6 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>785813</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1782897</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>547687</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="그림 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a14:imgLayer r:embed="rId3">
-                  <a14:imgEffect>
-                    <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
-                  </a14:imgEffect>
-                </a14:imgLayer>
-              </a14:imgProps>
-            </a:ext>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="17835563" y="7453313"/>
-          <a:ext cx="5759584" cy="4667249"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1322,59 +1734,6 @@
             </a14:hiddenLine>
           </a:ext>
         </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>619124</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>47626</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1616208</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>500063</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="그림 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a14:imgLayer r:embed="rId3">
-                  <a14:imgEffect>
-                    <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
-                  </a14:imgEffect>
-                </a14:imgLayer>
-              </a14:imgProps>
-            </a:ext>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="17697449" y="7429501"/>
-          <a:ext cx="5769109" cy="4691062"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1683,7 +2042,7 @@
     <col min="1" max="1" width="10.625" style="2" customWidth="1"/>
     <col min="2" max="2" width="25.625" style="2" customWidth="1"/>
     <col min="3" max="3" width="62.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="62.625" style="29" customWidth="1"/>
+    <col min="4" max="4" width="62.625" style="31" customWidth="1"/>
     <col min="5" max="7" width="62.625" style="2" customWidth="1"/>
     <col min="8" max="8" width="8.625" style="2" customWidth="1"/>
     <col min="9" max="257" width="9" style="2"/>
@@ -2131,463 +2490,505 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="120" customHeight="1" thickBot="1">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:11" s="7" customFormat="1" ht="78" customHeight="1" thickTop="1" thickBot="1">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="4">
-        <v>43906</v>
+        <v>43913</v>
       </c>
       <c r="D2" s="4">
         <f>C2+1</f>
-        <v>43907</v>
+        <v>43914</v>
       </c>
       <c r="E2" s="5">
         <f>D2+1</f>
-        <v>43908</v>
+        <v>43915</v>
       </c>
       <c r="F2" s="4">
         <f>E2+1</f>
-        <v>43909</v>
+        <v>43916</v>
       </c>
       <c r="G2" s="4">
         <f>F2+1</f>
-        <v>43910</v>
+        <v>43917</v>
       </c>
       <c r="H2" s="6"/>
     </row>
-    <row r="3" spans="1:11" s="10" customFormat="1" ht="54.95" customHeight="1" thickTop="1">
-      <c r="A3" s="42" t="s">
+    <row r="3" spans="1:11" s="12" customFormat="1" ht="54.95" customHeight="1" thickTop="1">
+      <c r="A3" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="9"/>
-    </row>
-    <row r="4" spans="1:11" s="10" customFormat="1" ht="54.95" customHeight="1">
-      <c r="A4" s="43"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="9"/>
-    </row>
-    <row r="5" spans="1:11" s="10" customFormat="1" ht="54.95" customHeight="1">
-      <c r="A5" s="43"/>
-      <c r="B5" s="43"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="13"/>
-    </row>
-    <row r="6" spans="1:11" s="10" customFormat="1" ht="54.95" customHeight="1">
-      <c r="A6" s="43"/>
-      <c r="B6" s="43"/>
-      <c r="C6" s="11" t="s">
+      <c r="C3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="11"/>
+    </row>
+    <row r="4" spans="1:11" s="12" customFormat="1" ht="54.95" customHeight="1">
+      <c r="A4" s="46"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="D4" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="E4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="9"/>
-    </row>
-    <row r="7" spans="1:11" s="10" customFormat="1" ht="54.95" customHeight="1">
-      <c r="A7" s="43"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="11" t="s">
+      <c r="F4" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="G4" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="H4" s="11"/>
+    </row>
+    <row r="5" spans="1:11" s="12" customFormat="1" ht="54.95" customHeight="1">
+      <c r="A5" s="46"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="9"/>
-    </row>
-    <row r="8" spans="1:11" s="10" customFormat="1" ht="54.95" customHeight="1">
-      <c r="A8" s="43"/>
-      <c r="B8" s="43"/>
-      <c r="C8" s="14" t="s">
+      <c r="D5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="E5" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="F5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="G5" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="H5" s="17"/>
+    </row>
+    <row r="6" spans="1:11" s="12" customFormat="1" ht="54.95" customHeight="1">
+      <c r="A6" s="46"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="13" t="s">
         <v>15</v>
       </c>
+      <c r="D6" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="11"/>
+    </row>
+    <row r="7" spans="1:11" s="12" customFormat="1" ht="54.95" customHeight="1">
+      <c r="A7" s="46"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="11"/>
+    </row>
+    <row r="8" spans="1:11" s="12" customFormat="1" ht="54.95" customHeight="1" thickBot="1">
+      <c r="A8" s="46"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>25</v>
+      </c>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:11" s="10" customFormat="1" ht="54.95" customHeight="1">
-      <c r="A9" s="43"/>
-      <c r="B9" s="43"/>
-      <c r="C9" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="H9" s="9"/>
-    </row>
-    <row r="10" spans="1:11" s="10" customFormat="1" ht="54.95" customHeight="1">
-      <c r="A10" s="43"/>
-      <c r="B10" s="43"/>
-      <c r="C10" s="11" t="s">
-        <v>21</v>
+    <row r="9" spans="1:11" s="12" customFormat="1" ht="54.95" customHeight="1" thickTop="1">
+      <c r="A9" s="46"/>
+      <c r="B9" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="11"/>
+    </row>
+    <row r="10" spans="1:11" s="12" customFormat="1" ht="54.95" customHeight="1">
+      <c r="A10" s="46"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="13" t="s">
+        <v>28</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="1:11" s="12" customFormat="1" ht="54.95" customHeight="1">
+      <c r="A11" s="46"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" s="11"/>
+    </row>
+    <row r="12" spans="1:11" s="12" customFormat="1" ht="54.95" customHeight="1">
+      <c r="A12" s="46"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="H12" s="11"/>
+    </row>
+    <row r="13" spans="1:11" s="12" customFormat="1" ht="54.95" customHeight="1">
+      <c r="A13" s="46"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" s="17"/>
+    </row>
+    <row r="14" spans="1:11" s="12" customFormat="1" ht="54.95" customHeight="1" thickBot="1">
+      <c r="A14" s="46"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="H10" s="6"/>
-    </row>
-    <row r="11" spans="1:11" s="10" customFormat="1" ht="54.95" customHeight="1">
-      <c r="A11" s="43"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="11" t="s">
+      <c r="D14" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14" s="11"/>
+    </row>
+    <row r="15" spans="1:11" s="12" customFormat="1" ht="60" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A15" s="47"/>
+      <c r="B15" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="G15" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="H15" s="11"/>
+      <c r="I15" s="22"/>
+    </row>
+    <row r="16" spans="1:11" ht="54.95" customHeight="1" thickTop="1">
+      <c r="A16" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="C16" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="D16" s="23"/>
+      <c r="E16" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+    </row>
+    <row r="17" spans="1:11" ht="54.95" customHeight="1">
+      <c r="A17" s="46"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="H11" s="9"/>
-    </row>
-    <row r="12" spans="1:11" s="10" customFormat="1" ht="54.95" customHeight="1">
-      <c r="A12" s="43"/>
-      <c r="B12" s="43"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H12" s="9"/>
-    </row>
-    <row r="13" spans="1:11" s="10" customFormat="1" ht="54.95" customHeight="1">
-      <c r="A13" s="43"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H13" s="13"/>
-    </row>
-    <row r="14" spans="1:11" s="10" customFormat="1" ht="54.95" customHeight="1" thickBot="1">
-      <c r="A14" s="43"/>
-      <c r="B14" s="44"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="9"/>
-    </row>
-    <row r="15" spans="1:11" s="10" customFormat="1" ht="60" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A15" s="44"/>
-      <c r="B15" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" s="15" t="s">
+      <c r="F17" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="H17" s="11"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+    </row>
+    <row r="18" spans="1:11" ht="54.95" customHeight="1">
+      <c r="A18" s="46"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="G15" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="H15" s="9"/>
-      <c r="I15" s="19"/>
-    </row>
-    <row r="16" spans="1:11" ht="54.95" customHeight="1" thickTop="1">
-      <c r="A16" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" s="42" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="F16" s="20"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-    </row>
-    <row r="17" spans="1:11" ht="54.95" customHeight="1">
-      <c r="A17" s="43"/>
-      <c r="B17" s="43"/>
-      <c r="C17" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="F17" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="G17" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="H17" s="9"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-    </row>
-    <row r="18" spans="1:11" ht="54.95" customHeight="1">
-      <c r="A18" s="43"/>
-      <c r="B18" s="43"/>
-      <c r="C18" s="14" t="s">
-        <v>44</v>
-      </c>
       <c r="D18" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G18" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="H18" s="9"/>
+        <v>55</v>
+      </c>
+      <c r="E18" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="G18" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="H18" s="11"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
     </row>
     <row r="19" spans="1:11" ht="54.95" customHeight="1">
-      <c r="A19" s="43"/>
-      <c r="B19" s="43"/>
-      <c r="C19" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="H19" s="13"/>
+      <c r="A19" s="46"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="H19" s="17"/>
       <c r="I19" s="1"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
     </row>
     <row r="20" spans="1:11" ht="54.95" customHeight="1">
-      <c r="A20" s="43"/>
-      <c r="B20" s="43"/>
-      <c r="C20" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>30</v>
+      <c r="A20" s="46"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>66</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="G20" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="H20" s="9"/>
+        <v>67</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="H20" s="11"/>
       <c r="I20" s="1"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
     </row>
     <row r="21" spans="1:11" ht="54.95" customHeight="1" thickBot="1">
-      <c r="A21" s="43"/>
-      <c r="B21" s="43"/>
-      <c r="C21" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="G21" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="H21" s="9"/>
+      <c r="A21" s="46"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="G21" s="18"/>
+      <c r="H21" s="11"/>
       <c r="I21" s="1"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
     </row>
     <row r="22" spans="1:11" ht="54.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A22" s="44"/>
-      <c r="B22" s="44"/>
-      <c r="C22" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="D22" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="E22" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="F22" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="G22" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="H22" s="19"/>
+      <c r="A22" s="47"/>
+      <c r="B22" s="47"/>
+      <c r="C22" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="F22" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="G22" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="H22" s="22"/>
       <c r="I22" s="1"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-    </row>
-    <row r="23" spans="1:11" s="28" customFormat="1" ht="42" customHeight="1" thickTop="1">
-      <c r="A23" s="26"/>
-      <c r="B23" s="45" t="s">
-        <v>58</v>
-      </c>
-      <c r="C23" s="45"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="45"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="10"/>
-    </row>
-    <row r="24" spans="1:11" s="28" customFormat="1" ht="42" customHeight="1">
-      <c r="A24" s="27"/>
-      <c r="B24" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="39"/>
-      <c r="J24" s="10"/>
-    </row>
-    <row r="25" spans="1:11" s="28" customFormat="1" ht="42" customHeight="1">
-      <c r="A25" s="27"/>
-      <c r="B25" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="C25" s="40"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="40"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="40"/>
-      <c r="J25" s="10"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+    </row>
+    <row r="23" spans="1:11" s="30" customFormat="1" ht="42" customHeight="1" thickTop="1">
+      <c r="A23" s="28"/>
+      <c r="B23" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="12"/>
+    </row>
+    <row r="24" spans="1:11" s="30" customFormat="1" ht="42" customHeight="1">
+      <c r="A24" s="29"/>
+      <c r="B24" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="J24" s="12"/>
+    </row>
+    <row r="25" spans="1:11" s="30" customFormat="1" ht="42" customHeight="1">
+      <c r="A25" s="29"/>
+      <c r="B25" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" s="43"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="43"/>
+      <c r="J25" s="12"/>
     </row>
     <row r="26" spans="1:11" ht="39.950000000000003" customHeight="1">
       <c r="A26" s="1"/>
-      <c r="B26" s="39"/>
-      <c r="C26" s="39"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="39"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
     </row>
     <row r="27" spans="1:11">
       <c r="D27" s="2"/>
@@ -2595,16 +2996,17 @@
     <row r="28" spans="1:11" ht="0.75" customHeight="1"/>
     <row r="45" ht="285.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
+    <mergeCell ref="B23:G23"/>
     <mergeCell ref="B24:G24"/>
     <mergeCell ref="B25:G25"/>
     <mergeCell ref="B26:G26"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A3:A15"/>
-    <mergeCell ref="B3:B14"/>
+    <mergeCell ref="B3:B8"/>
+    <mergeCell ref="B9:B14"/>
     <mergeCell ref="A16:A22"/>
     <mergeCell ref="B16:B22"/>
-    <mergeCell ref="B23:G23"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.39370078740157483" right="0.19685039370078741" top="0.59055118110236227" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -2629,7 +3031,7 @@
     <col min="1" max="1" width="10.625" style="2" customWidth="1"/>
     <col min="2" max="2" width="25.625" style="2" customWidth="1"/>
     <col min="3" max="3" width="62.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="62.625" style="29" customWidth="1"/>
+    <col min="4" max="4" width="62.625" style="31" customWidth="1"/>
     <col min="5" max="7" width="62.625" style="2" customWidth="1"/>
     <col min="8" max="257" width="9" style="2"/>
     <col min="258" max="258" width="20.75" style="2" customWidth="1"/>
@@ -3076,420 +3478,462 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="120" customHeight="1" thickBot="1">
-      <c r="A1" s="41" t="s">
-        <v>61</v>
-      </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
+      <c r="A1" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
       <c r="AG1" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33" s="30" customFormat="1" ht="78" customHeight="1" thickTop="1" thickBot="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" s="32" customFormat="1" ht="78" customHeight="1" thickTop="1" thickBot="1">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="4">
-        <f>'03월16일'!C2</f>
-        <v>43906</v>
+        <f>'03월23일'!C2</f>
+        <v>43913</v>
       </c>
       <c r="D2" s="4">
         <f>C2+1</f>
-        <v>43907</v>
+        <v>43914</v>
       </c>
       <c r="E2" s="5">
         <f>D2+1</f>
-        <v>43908</v>
+        <v>43915</v>
       </c>
       <c r="F2" s="4">
         <f>E2+1</f>
-        <v>43909</v>
+        <v>43916</v>
       </c>
       <c r="G2" s="4">
         <f>F2+1</f>
-        <v>43910</v>
-      </c>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-    </row>
-    <row r="3" spans="1:33" s="10" customFormat="1" ht="54.95" customHeight="1" thickTop="1">
-      <c r="A3" s="42" t="s">
-        <v>63</v>
-      </c>
-      <c r="B3" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-    </row>
-    <row r="4" spans="1:33" s="10" customFormat="1" ht="54.95" customHeight="1">
-      <c r="A4" s="43"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="32"/>
-    </row>
-    <row r="5" spans="1:33" s="10" customFormat="1" ht="54.95" customHeight="1">
-      <c r="A5" s="43"/>
-      <c r="B5" s="43"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="33"/>
-    </row>
-    <row r="6" spans="1:33" s="10" customFormat="1" ht="54.95" customHeight="1">
-      <c r="A6" s="43"/>
-      <c r="B6" s="43"/>
-      <c r="C6" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33" s="10" customFormat="1" ht="54.95" customHeight="1">
-      <c r="A7" s="43"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33" s="10" customFormat="1" ht="54.95" customHeight="1">
-      <c r="A8" s="43"/>
-      <c r="B8" s="43"/>
-      <c r="C8" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="E8" s="11" t="s">
+        <v>43917</v>
+      </c>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+    </row>
+    <row r="3" spans="1:33" s="12" customFormat="1" ht="54.95" customHeight="1" thickTop="1">
+      <c r="A3" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="B3" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="G8" s="32" t="s">
+      <c r="C3" s="10" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="9" spans="1:33" s="10" customFormat="1" ht="54.95" customHeight="1">
-      <c r="A9" s="43"/>
-      <c r="B9" s="43"/>
-      <c r="C9" s="11" t="s">
+      <c r="D3" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="E3" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" s="12" customFormat="1" ht="54.95" customHeight="1">
+      <c r="A4" s="46"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="D4" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="E4" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="F4" s="15" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="10" spans="1:33" s="10" customFormat="1" ht="54.95" customHeight="1">
-      <c r="A10" s="43"/>
-      <c r="B10" s="43"/>
-      <c r="C10" s="11" t="s">
+      <c r="G4" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="D10" s="11" t="s">
+    </row>
+    <row r="5" spans="1:33" s="12" customFormat="1" ht="54.95" customHeight="1">
+      <c r="A5" s="46"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="D5" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="E5" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="G10" s="14" t="s">
+      <c r="F5" s="14" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="11" spans="1:33" s="10" customFormat="1" ht="54.95" customHeight="1">
-      <c r="A11" s="43"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="11" t="s">
+      <c r="G5" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="D11" s="11" t="s">
+    </row>
+    <row r="6" spans="1:33" s="12" customFormat="1" ht="54.95" customHeight="1">
+      <c r="A6" s="46"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="D6" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="F11" s="34" t="s">
+      <c r="E6" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="G11" s="32" t="s">
+      <c r="F6" s="13" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="12" spans="1:33" s="10" customFormat="1" ht="54.95" customHeight="1">
-      <c r="A12" s="43"/>
-      <c r="B12" s="43"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="F12" s="11" t="s">
+      <c r="G6" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="G12" s="32" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="13" spans="1:33" s="10" customFormat="1" ht="54.95" customHeight="1">
-      <c r="A13" s="43"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="32" t="s">
+    </row>
+    <row r="7" spans="1:33" s="12" customFormat="1" ht="54.95" customHeight="1">
+      <c r="A7" s="46"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="15" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="14" spans="1:33" s="10" customFormat="1" ht="54.95" customHeight="1" thickBot="1">
-      <c r="A14" s="43"/>
-      <c r="B14" s="44"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-    </row>
-    <row r="15" spans="1:33" s="10" customFormat="1" ht="60" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A15" s="44"/>
-      <c r="B15" s="17" t="s">
+      <c r="D7" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="E7" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="F7" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="E15" s="18" t="s">
+      <c r="G7" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="F15" s="18" t="s">
+    </row>
+    <row r="8" spans="1:33" s="12" customFormat="1" ht="54.95" customHeight="1" thickBot="1">
+      <c r="A8" s="46"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="G15" s="18" t="s">
+      <c r="D8" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" s="12" customFormat="1" ht="54.95" customHeight="1" thickTop="1">
+      <c r="A9" s="46"/>
+      <c r="B9" s="45" t="s">
         <v>101</v>
       </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="8"/>
+    </row>
+    <row r="10" spans="1:33" s="12" customFormat="1" ht="54.95" customHeight="1">
+      <c r="A10" s="46"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="D10" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" s="12" customFormat="1" ht="54.95" customHeight="1">
+      <c r="A11" s="46"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" s="12" customFormat="1" ht="54.95" customHeight="1">
+      <c r="A12" s="46"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" s="12" customFormat="1" ht="54.95" customHeight="1">
+      <c r="A13" s="46"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" s="12" customFormat="1" ht="54.95" customHeight="1" thickBot="1">
+      <c r="A14" s="46"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" s="12" customFormat="1" ht="60" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A15" s="47"/>
+      <c r="B15" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="G15" s="21" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="16" spans="1:33" ht="54.95" customHeight="1" thickTop="1">
-      <c r="A16" s="42" t="s">
+      <c r="A16" s="45" t="s">
+        <v>127</v>
+      </c>
+      <c r="B16" s="45" t="s">
+        <v>101</v>
+      </c>
+      <c r="C16" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="B16" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="E16" s="11" t="s">
+      <c r="D16" s="23"/>
+      <c r="E16" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="F16" s="13"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+    </row>
+    <row r="17" spans="1:9" ht="54.95" customHeight="1">
+      <c r="A17" s="46"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="E17" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="F16" s="20"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-    </row>
-    <row r="17" spans="1:9" ht="54.95" customHeight="1">
-      <c r="A17" s="43"/>
-      <c r="B17" s="43"/>
-      <c r="C17" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="F17" s="35" t="s">
-        <v>106</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="H17" s="10"/>
+      <c r="F17" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="H17" s="12"/>
     </row>
     <row r="18" spans="1:9" ht="54.95" customHeight="1">
-      <c r="A18" s="43"/>
-      <c r="B18" s="43"/>
-      <c r="C18" s="14" t="s">
-        <v>107</v>
+      <c r="A18" s="46"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="13" t="s">
+        <v>131</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="G18" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
+        <v>132</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="F18" s="37" t="s">
+        <v>133</v>
+      </c>
+      <c r="G18" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
     </row>
     <row r="19" spans="1:9" ht="54.95" customHeight="1">
-      <c r="A19" s="43"/>
-      <c r="B19" s="43"/>
-      <c r="C19" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="F19" s="36" t="s">
-        <v>114</v>
-      </c>
-      <c r="G19" s="36" t="s">
-        <v>115</v>
-      </c>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
+      <c r="A19" s="46"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="D19" s="36" t="s">
+        <v>136</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
     </row>
     <row r="20" spans="1:9" ht="54.95" customHeight="1">
-      <c r="A20" s="43"/>
-      <c r="B20" s="43"/>
-      <c r="C20" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>117</v>
+      <c r="A20" s="46"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>142</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="G20" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
+        <v>143</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
     </row>
     <row r="21" spans="1:9" ht="54.95" customHeight="1" thickBot="1">
-      <c r="A21" s="43"/>
-      <c r="B21" s="43"/>
-      <c r="C21" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="F21" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="G21" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
+      <c r="A21" s="46"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="G21" s="18"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
     </row>
     <row r="22" spans="1:9" ht="54.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A22" s="44"/>
-      <c r="B22" s="44"/>
-      <c r="C22" s="37" t="s">
-        <v>122</v>
-      </c>
-      <c r="D22" s="37" t="s">
-        <v>122</v>
-      </c>
-      <c r="E22" s="37" t="s">
-        <v>122</v>
-      </c>
-      <c r="F22" s="38" t="s">
-        <v>123</v>
-      </c>
-      <c r="G22" s="38" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" s="28" customFormat="1" ht="42" customHeight="1" thickTop="1">
-      <c r="B23" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="C23" s="45"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="45"/>
-    </row>
-    <row r="24" spans="1:9" s="28" customFormat="1" ht="42" customHeight="1">
-      <c r="B24" s="39" t="s">
-        <v>125</v>
-      </c>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="39"/>
-    </row>
-    <row r="25" spans="1:9" s="28" customFormat="1" ht="42" customHeight="1">
-      <c r="B25" s="39" t="s">
-        <v>126</v>
-      </c>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="39"/>
+      <c r="A22" s="47"/>
+      <c r="B22" s="47"/>
+      <c r="C22" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="D22" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="E22" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="F22" s="40" t="s">
+        <v>146</v>
+      </c>
+      <c r="G22" s="40" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" s="30" customFormat="1" ht="42" customHeight="1" thickTop="1">
+      <c r="B23" s="41" t="s">
+        <v>147</v>
+      </c>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
+    </row>
+    <row r="24" spans="1:9" s="30" customFormat="1" ht="42" customHeight="1">
+      <c r="B24" s="42" t="s">
+        <v>148</v>
+      </c>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+    </row>
+    <row r="25" spans="1:9" s="30" customFormat="1" ht="42" customHeight="1">
+      <c r="B25" s="42" t="s">
+        <v>149</v>
+      </c>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
     </row>
     <row r="26" spans="1:9" ht="39.950000000000003" customHeight="1">
       <c r="B26" s="1"/>
@@ -3562,15 +4006,16 @@
       <c r="D45" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="B23:G23"/>
     <mergeCell ref="B24:G24"/>
     <mergeCell ref="B25:G25"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A3:A15"/>
-    <mergeCell ref="B3:B14"/>
+    <mergeCell ref="B3:B8"/>
+    <mergeCell ref="B9:B14"/>
     <mergeCell ref="A16:A22"/>
     <mergeCell ref="B16:B22"/>
-    <mergeCell ref="B23:G23"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.39370078740157483" right="0.19685039370078741" top="0.59055118110236215" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>

--- a/foodtable/2.xlsx
+++ b/foodtable/2.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2. 복리후생\2017년\3. 식당\2020년 식단표\0323\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2. 복리후생\2017년\3. 식당\2020년 식단표\0330\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="18180" windowHeight="12120"/>
+    <workbookView xWindow="360" yWindow="105" windowWidth="18660" windowHeight="12120"/>
   </bookViews>
   <sheets>
-    <sheet name="03월23일" sheetId="1" r:id="rId1"/>
+    <sheet name="03월30일" sheetId="1" r:id="rId1"/>
     <sheet name="영문" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'03월23일'!$A$1:$H$25</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'03월30일'!$A$1:$H$25</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">영문!$A$1:$H$25</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="144">
   <si>
     <t xml:space="preserve">주 간 식 단 표 </t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -55,11 +55,51 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>사색나물비빔밥</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>새알미역국</t>
+    <t>고구마영양밥&amp;양념장</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>콩나물밥&amp;양념장</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[봄봄봄봄이왔네요♬]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>들깨미역국</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>맑은콩나물국</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>쑥갓어묵국</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>파송송달걀국</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>꽃피운비빔밥</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>달콤고갈비</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>매콤두부무조림</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>매콤김치참치볶음</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>김치두루치기</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -67,39 +107,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>얼큰시락국</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>파송송달걀국</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>미소장국</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>해물동그랑땡전&amp;초장</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>두부된장국</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>충무식오징어어묵무침</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>미트볼스테이크소스조림</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>제육두루치기</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>양배추찜&amp;쌈장</t>
+    <t>연두부&amp;양념장</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -107,35 +115,35 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>생김&amp;깨간장</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>감자시래기지짐이</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>삼색달걀찜</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>돈육감자짜글이</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>얼린쿨스타</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>구운손만두&amp;양념장</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>야채고로케&amp;케찹</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>참나물묵무침</t>
+    <t>온두부&amp;양념장</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>카레소스</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>두부젓국</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>맛살겨자냉채무침</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>미나리무생채</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>유자청참나물무침</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>고구마떡맛탕</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>사모사튀김&amp;요거트S</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -168,55 +176,47 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>치킨너겟카레라이스</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>백미밥</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>굴소스야채볶음밥</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>김밥볶음밥</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>육전잔치국수&amp;양념장</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>달걀프라이</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>차슈나가사끼짬뽕</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>미니우동</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>유부주머니꼬치어묵우동</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>데리야끼타코야키</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>설탕핫도그&amp;케찹</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>시금치샐러드피자</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>갈릭크리미핫도그</t>
+    <t>면기누들떡볶이</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>햄말이주먹밥</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>김치볶음밥</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>얼큰닭칼국수</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>장조림버터비빔밥</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">     &amp;장각닭다리통닭</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>지단부추잔치국수</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>타워함박스테이크</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>채소장아찌</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>해쉬포테이토</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>얇은단무지</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -224,15 +224,15 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>생채겉절이</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>얇게썬단무지</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>단팥뿌린찐빵</t>
+    <t>마약토스트</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>샐러드스파게티</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>얼린요구르트</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -264,167 +264,63 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="35"/>
-        <color rgb="FFF20051"/>
-        <rFont val="HY강M"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t>수</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="35"/>
-        <color rgb="FF17616B"/>
-        <rFont val="HY강M"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t>요</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="35"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="HY강M"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t>일</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="35"/>
-        <color theme="8" tint="-0.249977111117893"/>
-        <rFont val="HY강M"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t>은</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="35"/>
-        <color theme="6"/>
-        <rFont val="HY강M"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t>다</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="35"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="HY강M"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t>먹</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="35"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="HY강M"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t>는</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="35"/>
-        <color theme="7" tint="-0.249977111117893"/>
-        <rFont val="HY강M"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t>날</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="35"/>
-        <rFont val="HY강M"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t>]</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>짜장밥</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>뚝샤브샤브버섯탕</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>우렁강된장</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>팝콘치킨마요덮밥</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>치킨커틀렛오므라이스</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>비빔만두</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;양념장</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>열무김치비빔국수</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>오이부추무침</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>콩나물막국수</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>참치할라피뇨부르스게타</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>고구마고로케&amp;스윗칠리S</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>닭다리모양만두</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>컵과일</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>포기김치</t>
+    <t>백미밥</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>뚝등뼈해장국</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>뚝돼지찌개</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>뚝배기김치알밥</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>면기쫄면</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>참치김가루밥&amp;위생장갑</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>옛날소세지전&amp;케찹</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>간장불고기</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;서문시장납작만두</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>치즈달콤달걀찜</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>김피탕(김치피자탕수육)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>콩나물무침</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>락교&amp;초생강</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>치킨커틀렛&amp;데미S</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>바나나우유</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -469,32 +365,19 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>중식</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">A코너
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="32"/>
-        <rFont val="HY강M"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t>(4,500원)</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>Muti-grain Rice</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Seasoend Cirsium Bibimbab</t>
+    <t>Nutritious Rice with Sweet Potato</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bean Sprouts Rice</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Spring has come♬]</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -502,43 +385,43 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>Bean Sprouts Soup</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish Cake Soup</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eggs Soup</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blossom Bibimbab</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sweet Mackerel</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Braised Tofu</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stir-fried Kimchi,Tuna</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stir-fried Spicy Pork &amp; Kimchi</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>Fried Egg&amp;hot pepper paste</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Dried Radish Green Soup</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>egg Soup</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Miso Soup</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Korea Style Meatball</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Soybean Paste Sauce</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stir-fried Sauid Fishcake</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Braised Meatball</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stir-fried Pork</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Steamed Cabbage</t>
+    <t>Silken Beancurd</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -546,19 +429,107 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Laver&amp;Marinade</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dried Radish Greens Stew</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Steamed Egg</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Braised Potatoes</t>
+    <t>Boiled Tofu</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Curry Sauce</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tofu, Salted Shrimp Soup</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chilled Crabmeat Salad</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shredded Daikon</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seasoned Chamnamul</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sugar Glazed Sweet Potato</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fried Samosa&amp;Yogurt S</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kimkchi</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kimchi</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Udon Soup</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Additional Rice</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Noodle Tteok-bokki</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ham Rice Ball</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kimchi Fried Rice</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spicy Chicken noodle Soup</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Soy S Braised Pork Rice</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;Fried Chicken Drumsticks</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Banquet Noodles</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tower Hamburger Steak</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pickled Vegetable</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hash Potato</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pickled Radish</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Green Salad</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Egg Toast</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fusilli Pizza Salad</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -566,48 +537,27 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Stir-fried Dumplings</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Vegetable Croquette</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Seasoned Acorn Jelly Salad</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Kimchi</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">B코너
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="32"/>
-        <rFont val="HY강M"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t>(4,500원)</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Udon Soup</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Additional Rice</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Chicken Nugget Curried Rice</t>
+    <t>Scorched Rice Soup/Mango juice</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scorched Rice Soup/Americano</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scorched Rice Soup/Cirtus Tea</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scorched Rice Soup/Hot Chocolate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scorched Rice Soup/Cinnamon Punch</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -615,220 +565,22 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Oyster Sauce Fried Rice</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>fried Gimbap Rice</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pork Pancake Banquet Noodles</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fried Eggs</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Char Siu Nagasaki Chanpon</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mini Udon</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>fried Tofu Udon</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Teriyaki Takoyaki</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hotdog&amp;Ketchup</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Spinach Salad Pizza</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Galic Creamy Corndog</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Green Salad</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Seasoned Vegetable</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Seasoned Danmuji</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Steamed Bun</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>음료</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Scorched Rice Soup/Mango juice</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Scorched Rice Soup/Americano</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Scorched Rice Soup/Cirtus Tea</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Scorched Rice Soup/Hot Chocolate</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Scorched Rice Soup/Cinnamon Punch</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>석식</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="35"/>
-        <color rgb="FFF20051"/>
-        <rFont val="HY강M"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t>Day</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="35"/>
-        <rFont val="HY강M"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="35"/>
-        <color rgb="FF00B050"/>
-        <rFont val="HY강M"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t>without</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="35"/>
-        <rFont val="HY강M"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="35"/>
-        <color rgb="FF376CBB"/>
-        <rFont val="HY강M"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t>any</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="35"/>
-        <rFont val="HY강M"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="35"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="HY강M"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t>Leftover</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="35"/>
-        <rFont val="HY강M"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t>]</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Black-bean Sauce Rice</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Udon Soup</t>
-  </si>
-  <si>
-    <t>Fried Egg</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mushroom Shabu-Shabu</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Chicken Mayo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Chicken Cutlet Omelet</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fried Dumplings with Spicy S</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;Marinade</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Spicy Noodles &amp;Young Radish</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Seasoned Cucumber</t>
+    <t>Rice with Kimchi</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pork Hangover Soup</t>
+  </si>
+  <si>
+    <t>Tuna Seaweed Rice</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pork Stew</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>and Fish Roe</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -836,106 +588,43 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Tuna Jalapeno Bruschetta</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sweet Potato Crouette</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shape of Chicken Dumplings</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="35"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="HY강M"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t>A</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="35"/>
-        <color rgb="FFC00000"/>
-        <rFont val="HY강M"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="35"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="HY강M"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t>Cup</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="35"/>
-        <color rgb="FFC00000"/>
-        <rFont val="HY강M"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="35"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="HY강M"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t>of</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="35"/>
-        <color rgb="FFC00000"/>
-        <rFont val="HY강M"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="35"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="HY강M"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">Fruit </t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Kimchi</t>
-  </si>
-  <si>
-    <t>4,500원</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,500원</t>
+    <t>&amp; Sanitary Gloves</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sausages&amp;Ketchup</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pork Bulgogi</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;Flat Dumplings</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Steamed Cheese Eggs</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kimchi Pizza Sweet and Sour Pork</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seasoned Bean Sprouts</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rakkyo&amp;Pickled ginger</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chicken Cutlet&amp;Demi S</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Banana Milk</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -958,7 +647,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="38">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1064,6 +753,14 @@
       <charset val="129"/>
     </font>
     <font>
+      <b/>
+      <sz val="35"/>
+      <color rgb="FF346129"/>
+      <name val="HY강M"/>
+      <family val="1"/>
+      <charset val="129"/>
+    </font>
+    <font>
       <sz val="20"/>
       <color theme="1"/>
       <name val="HY강M"/>
@@ -1080,72 +777,8 @@
     </font>
     <font>
       <b/>
-      <sz val="35"/>
-      <color rgb="FF346129"/>
-      <name val="HY강M"/>
-      <family val="1"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="35"/>
-      <color rgb="FFF20051"/>
-      <name val="HY강M"/>
-      <family val="1"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="35"/>
-      <color rgb="FF17616B"/>
-      <name val="HY강M"/>
-      <family val="1"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="35"/>
-      <color rgb="FFFFC000"/>
-      <name val="HY강M"/>
-      <family val="1"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="35"/>
-      <color theme="8" tint="-0.249977111117893"/>
-      <name val="HY강M"/>
-      <family val="1"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="35"/>
-      <color theme="6"/>
-      <name val="HY강M"/>
-      <family val="1"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="35"/>
-      <color rgb="FF7030A0"/>
-      <name val="HY강M"/>
-      <family val="1"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="35"/>
-      <color rgb="FFFF0000"/>
-      <name val="HY강M"/>
-      <family val="1"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="35"/>
-      <color theme="7" tint="-0.249977111117893"/>
+      <sz val="36"/>
+      <color rgb="FFC00000"/>
       <name val="HY강M"/>
       <family val="1"/>
       <charset val="129"/>
@@ -1153,14 +786,6 @@
     <font>
       <b/>
       <sz val="36"/>
-      <name val="HY강M"/>
-      <family val="1"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="36"/>
-      <color rgb="FFC00000"/>
       <name val="HY강M"/>
       <family val="1"/>
       <charset val="129"/>
@@ -1209,7 +834,7 @@
     </font>
     <font>
       <b/>
-      <sz val="26"/>
+      <sz val="28"/>
       <color rgb="FFC00000"/>
       <name val="HY강M"/>
       <family val="1"/>
@@ -1217,24 +842,8 @@
     </font>
     <font>
       <b/>
-      <sz val="35"/>
-      <color rgb="FF00B050"/>
-      <name val="HY강M"/>
-      <family val="1"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="35"/>
-      <color rgb="FF376CBB"/>
-      <name val="HY강M"/>
-      <family val="1"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="35"/>
-      <color rgb="FFCC0000"/>
+      <sz val="32"/>
+      <color rgb="FFC00000"/>
       <name val="HY강M"/>
       <family val="1"/>
       <charset val="129"/>
@@ -1278,7 +887,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1385,17 +994,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="double">
-        <color theme="6" tint="-0.499984740745262"/>
-      </right>
-      <top/>
-      <bottom style="double">
-        <color theme="6" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1404,16 +1002,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1447,21 +1045,24 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -1471,7 +1072,10 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1480,70 +1084,61 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="32" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="176" fontId="24" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1659,6 +1254,249 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4024312</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>71438</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>271461</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>538163</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="타원 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11558587" y="13777913"/>
+          <a:ext cx="1019174" cy="466725"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="MD아롱체" pitchFamily="18" charset="-127"/>
+              <a:ea typeface="MD아롱체" pitchFamily="18" charset="-127"/>
+            </a:rPr>
+            <a:t>NEW</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="4000" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="HY나무M" pitchFamily="18" charset="-127"/>
+            <a:ea typeface="HY나무M" pitchFamily="18" charset="-127"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>4691062</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>938211</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>561975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="타원 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="16997362" y="8172450"/>
+          <a:ext cx="1019174" cy="466725"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="MD아롱체" pitchFamily="18" charset="-127"/>
+              <a:ea typeface="MD아롱체" pitchFamily="18" charset="-127"/>
+            </a:rPr>
+            <a:t>NEW</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="4000" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="HY나무M" pitchFamily="18" charset="-127"/>
+            <a:ea typeface="HY나무M" pitchFamily="18" charset="-127"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3952875</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>309563</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>200024</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="타원 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="21031200" y="13320713"/>
+          <a:ext cx="1019174" cy="471487"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="MD아롱체" pitchFamily="18" charset="-127"/>
+              <a:ea typeface="MD아롱체" pitchFamily="18" charset="-127"/>
+            </a:rPr>
+            <a:t>NEW</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="4000" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="HY나무M" pitchFamily="18" charset="-127"/>
+            <a:ea typeface="HY나무M" pitchFamily="18" charset="-127"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1736,6 +1574,249 @@
         </a:extLst>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>4238615</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>428616</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>485764</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>204779</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="타원 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="16544915" y="7810491"/>
+          <a:ext cx="1019174" cy="471488"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="MD아롱체" pitchFamily="18" charset="-127"/>
+              <a:ea typeface="MD아롱체" pitchFamily="18" charset="-127"/>
+            </a:rPr>
+            <a:t>NEW</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="4000" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="HY나무M" pitchFamily="18" charset="-127"/>
+            <a:ea typeface="HY나무M" pitchFamily="18" charset="-127"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4024312</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>71438</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>271461</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>538163</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="타원 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11558587" y="13777913"/>
+          <a:ext cx="1019174" cy="466725"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="MD아롱체" pitchFamily="18" charset="-127"/>
+              <a:ea typeface="MD아롱체" pitchFamily="18" charset="-127"/>
+            </a:rPr>
+            <a:t>NEW</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="4000" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="HY나무M" pitchFamily="18" charset="-127"/>
+            <a:ea typeface="HY나무M" pitchFamily="18" charset="-127"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>4333875</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>571500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>581024</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>347662</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="타원 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="21412200" y="12887325"/>
+          <a:ext cx="1019174" cy="471487"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="MD아롱체" pitchFamily="18" charset="-127"/>
+              <a:ea typeface="MD아롱체" pitchFamily="18" charset="-127"/>
+            </a:rPr>
+            <a:t>NEW</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="4000" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="HY나무M" pitchFamily="18" charset="-127"/>
+            <a:ea typeface="HY나무M" pitchFamily="18" charset="-127"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2042,7 +2123,7 @@
     <col min="1" max="1" width="10.625" style="2" customWidth="1"/>
     <col min="2" max="2" width="25.625" style="2" customWidth="1"/>
     <col min="3" max="3" width="62.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="62.625" style="31" customWidth="1"/>
+    <col min="4" max="4" width="62.625" style="32" customWidth="1"/>
     <col min="5" max="7" width="62.625" style="2" customWidth="1"/>
     <col min="8" max="8" width="8.625" style="2" customWidth="1"/>
     <col min="9" max="257" width="9" style="2"/>
@@ -2490,46 +2571,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="120" customHeight="1" thickBot="1">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:11" s="7" customFormat="1" ht="78" customHeight="1" thickTop="1" thickBot="1">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="4">
-        <v>43913</v>
+        <v>43920</v>
       </c>
       <c r="D2" s="4">
         <f>C2+1</f>
-        <v>43914</v>
+        <v>43921</v>
       </c>
       <c r="E2" s="5">
         <f>D2+1</f>
-        <v>43915</v>
+        <v>43922</v>
       </c>
       <c r="F2" s="4">
         <f>E2+1</f>
-        <v>43916</v>
+        <v>43923</v>
       </c>
       <c r="G2" s="4">
         <f>F2+1</f>
-        <v>43917</v>
+        <v>43924</v>
       </c>
       <c r="H2" s="6"/>
     </row>
-    <row r="3" spans="1:11" s="12" customFormat="1" ht="54.95" customHeight="1" thickTop="1">
-      <c r="A3" s="45" t="s">
+    <row r="3" spans="1:11" s="13" customFormat="1" ht="54.95" customHeight="1" thickTop="1">
+      <c r="A3" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="44" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="8" t="s">
@@ -2538,175 +2619,173 @@
       <c r="D3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>3</v>
+      <c r="E3" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="11"/>
-    </row>
-    <row r="4" spans="1:11" s="12" customFormat="1" ht="54.95" customHeight="1">
-      <c r="A4" s="46"/>
-      <c r="B4" s="48"/>
-      <c r="C4" s="13" t="s">
-        <v>5</v>
+      <c r="G3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="12"/>
+    </row>
+    <row r="4" spans="1:11" s="13" customFormat="1" ht="54.95" customHeight="1">
+      <c r="A4" s="45"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="14" t="s">
+        <v>7</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="11"/>
-    </row>
-    <row r="5" spans="1:11" s="12" customFormat="1" ht="54.95" customHeight="1">
-      <c r="A5" s="46"/>
-      <c r="B5" s="48"/>
-      <c r="C5" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="H4" s="12"/>
+    </row>
+    <row r="5" spans="1:11" s="13" customFormat="1" ht="54.95" customHeight="1">
+      <c r="A5" s="45"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="D5" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="E5" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="17"/>
-    </row>
-    <row r="6" spans="1:11" s="12" customFormat="1" ht="54.95" customHeight="1">
-      <c r="A6" s="46"/>
-      <c r="B6" s="48"/>
-      <c r="C6" s="13" t="s">
+      <c r="F5" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="G5" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="H5" s="18"/>
+    </row>
+    <row r="6" spans="1:11" s="13" customFormat="1" ht="54.95" customHeight="1">
+      <c r="A6" s="45"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="14" t="s">
         <v>17</v>
       </c>
+      <c r="D6" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>19</v>
+      </c>
       <c r="F6" s="15" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="11"/>
-    </row>
-    <row r="7" spans="1:11" s="12" customFormat="1" ht="54.95" customHeight="1">
-      <c r="A7" s="46"/>
-      <c r="B7" s="48"/>
-      <c r="C7" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="H6" s="12"/>
+    </row>
+    <row r="7" spans="1:11" s="13" customFormat="1" ht="54.95" customHeight="1">
+      <c r="A7" s="45"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="14" t="s">
         <v>22</v>
       </c>
+      <c r="D7" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>24</v>
+      </c>
       <c r="F7" s="15" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" s="11"/>
-    </row>
-    <row r="8" spans="1:11" s="12" customFormat="1" ht="54.95" customHeight="1" thickBot="1">
-      <c r="A8" s="46"/>
-      <c r="B8" s="48"/>
-      <c r="C8" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="H7" s="12"/>
+    </row>
+    <row r="8" spans="1:11" s="13" customFormat="1" ht="54.95" customHeight="1" thickBot="1">
+      <c r="A8" s="45"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>27</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:11" s="12" customFormat="1" ht="54.95" customHeight="1" thickTop="1">
-      <c r="A9" s="46"/>
-      <c r="B9" s="45" t="s">
-        <v>26</v>
+    <row r="9" spans="1:11" s="13" customFormat="1" ht="54.95" customHeight="1" thickTop="1">
+      <c r="A9" s="45"/>
+      <c r="B9" s="44" t="s">
+        <v>28</v>
       </c>
       <c r="C9" s="8"/>
-      <c r="D9" s="8" t="s">
-        <v>27</v>
-      </c>
+      <c r="D9" s="8"/>
       <c r="E9" s="8"/>
-      <c r="F9" s="19"/>
+      <c r="F9" s="20"/>
       <c r="G9" s="8"/>
-      <c r="H9" s="11"/>
-    </row>
-    <row r="10" spans="1:11" s="12" customFormat="1" ht="54.95" customHeight="1">
-      <c r="A10" s="46"/>
-      <c r="B10" s="46"/>
-      <c r="C10" s="13" t="s">
-        <v>28</v>
+      <c r="H9" s="12"/>
+    </row>
+    <row r="10" spans="1:11" s="13" customFormat="1" ht="54.95" customHeight="1">
+      <c r="A10" s="45"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="14" t="s">
+        <v>29</v>
       </c>
       <c r="D10" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="13" t="s">
+      <c r="G10" s="16" t="s">
         <v>32</v>
       </c>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:11" s="12" customFormat="1" ht="54.95" customHeight="1">
-      <c r="A11" s="46"/>
-      <c r="B11" s="46"/>
-      <c r="C11" s="14" t="s">
+    <row r="11" spans="1:11" s="13" customFormat="1" ht="54.95" customHeight="1">
+      <c r="A11" s="45"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="G11" s="14" t="s">
+      <c r="G11" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="H11" s="11"/>
-    </row>
-    <row r="12" spans="1:11" s="12" customFormat="1" ht="54.95" customHeight="1">
-      <c r="A12" s="46"/>
-      <c r="B12" s="46"/>
-      <c r="C12" s="14" t="s">
+      <c r="H11" s="12"/>
+    </row>
+    <row r="12" spans="1:11" s="13" customFormat="1" ht="54.95" customHeight="1">
+      <c r="A12" s="45"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="16" t="s">
         <v>38</v>
       </c>
       <c r="D12" s="14" t="s">
@@ -2718,277 +2797,269 @@
       <c r="F12" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="G12" s="13" t="s">
+      <c r="G12" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="12"/>
+    </row>
+    <row r="13" spans="1:11" s="13" customFormat="1" ht="54.95" customHeight="1">
+      <c r="A13" s="45"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="H12" s="11"/>
-    </row>
-    <row r="13" spans="1:11" s="12" customFormat="1" ht="54.95" customHeight="1">
-      <c r="A13" s="46"/>
-      <c r="B13" s="46"/>
-      <c r="C13" s="13" t="s">
+      <c r="D13" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="E13" s="13" t="s">
+      <c r="E13" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="F13" s="13" t="s">
-        <v>42</v>
+      <c r="F13" s="14" t="s">
+        <v>45</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="H13" s="17"/>
-    </row>
-    <row r="14" spans="1:11" s="12" customFormat="1" ht="54.95" customHeight="1" thickBot="1">
-      <c r="A14" s="46"/>
-      <c r="B14" s="46"/>
-      <c r="C14" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="F14" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="G14" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="H14" s="11"/>
-    </row>
-    <row r="15" spans="1:11" s="12" customFormat="1" ht="60" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A15" s="47"/>
-      <c r="B15" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" s="18"/>
+    </row>
+    <row r="14" spans="1:11" s="13" customFormat="1" ht="54.95" customHeight="1" thickBot="1">
+      <c r="A14" s="45"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="12"/>
+    </row>
+    <row r="15" spans="1:11" s="13" customFormat="1" ht="60" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A15" s="46"/>
+      <c r="B15" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="E15" s="18" t="s">
+      <c r="E15" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="F15" s="18" t="s">
+      <c r="F15" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="G15" s="21" t="s">
+      <c r="G15" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="H15" s="11"/>
-      <c r="I15" s="22"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="24"/>
     </row>
     <row r="16" spans="1:11" ht="54.95" customHeight="1" thickTop="1">
-      <c r="A16" s="45" t="s">
+      <c r="A16" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="B16" s="45" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="23"/>
-      <c r="E16" s="8" t="s">
-        <v>53</v>
-      </c>
+      <c r="B16" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
-      <c r="H16" s="11"/>
+      <c r="H16" s="12"/>
       <c r="I16" s="1"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
     </row>
     <row r="17" spans="1:11" ht="54.95" customHeight="1">
-      <c r="A17" s="46"/>
-      <c r="B17" s="46"/>
+      <c r="A17" s="45"/>
+      <c r="B17" s="45"/>
       <c r="C17" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="D17" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="G17" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="H17" s="11"/>
+      <c r="G17" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="H17" s="12"/>
       <c r="I17" s="1"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
     </row>
     <row r="18" spans="1:11" ht="54.95" customHeight="1">
-      <c r="A18" s="46"/>
-      <c r="B18" s="46"/>
-      <c r="C18" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" s="14" t="s">
+      <c r="A18" s="45"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="E18" s="24" t="s">
+      <c r="D18" s="16" t="s">
         <v>56</v>
       </c>
+      <c r="E18" s="21" t="s">
+        <v>57</v>
+      </c>
       <c r="F18" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="G18" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="G18" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="H18" s="11"/>
+      <c r="H18" s="12"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
     </row>
     <row r="19" spans="1:11" ht="54.95" customHeight="1">
-      <c r="A19" s="46"/>
-      <c r="B19" s="46"/>
-      <c r="C19" s="13" t="s">
+      <c r="A19" s="45"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="16" t="s">
         <v>60</v>
       </c>
       <c r="E19" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="F19" s="13" t="s">
+      <c r="F19" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="G19" s="14" t="s">
+      <c r="G19" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="H19" s="17"/>
+      <c r="H19" s="18"/>
       <c r="I19" s="1"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
     </row>
     <row r="20" spans="1:11" ht="54.95" customHeight="1">
-      <c r="A20" s="46"/>
-      <c r="B20" s="46"/>
+      <c r="A20" s="45"/>
+      <c r="B20" s="45"/>
       <c r="C20" s="14" t="s">
         <v>64</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="E20" s="14" t="s">
+      <c r="E20" s="16" t="s">
         <v>66</v>
       </c>
       <c r="F20" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="G20" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="G20" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="H20" s="11"/>
+      <c r="H20" s="12"/>
       <c r="I20" s="1"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
     </row>
     <row r="21" spans="1:11" ht="54.95" customHeight="1" thickBot="1">
-      <c r="A21" s="46"/>
-      <c r="B21" s="46"/>
-      <c r="C21" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="E21" s="18" t="s">
+      <c r="A21" s="45"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21" s="19"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+    </row>
+    <row r="22" spans="1:11" ht="54.95" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A22" s="46"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="F21" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="G21" s="18"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-    </row>
-    <row r="22" spans="1:11" ht="54.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A22" s="47"/>
-      <c r="B22" s="47"/>
-      <c r="C22" s="26" t="s">
+      <c r="D22" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="E22" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="D22" s="26" t="s">
+      <c r="F22" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="E22" s="26" t="s">
+      <c r="G22" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="H22" s="24"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+    </row>
+    <row r="23" spans="1:11" s="31" customFormat="1" ht="42" customHeight="1" thickTop="1">
+      <c r="A23" s="29"/>
+      <c r="B23" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="F22" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="G22" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="H22" s="22"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-    </row>
-    <row r="23" spans="1:11" s="30" customFormat="1" ht="42" customHeight="1" thickTop="1">
-      <c r="A23" s="28"/>
-      <c r="B23" s="41" t="s">
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="13"/>
+    </row>
+    <row r="24" spans="1:11" s="31" customFormat="1" ht="42" customHeight="1">
+      <c r="A24" s="30"/>
+      <c r="B24" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="12"/>
-    </row>
-    <row r="24" spans="1:11" s="30" customFormat="1" ht="42" customHeight="1">
-      <c r="A24" s="29"/>
-      <c r="B24" s="42" t="s">
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
+      <c r="J24" s="13"/>
+    </row>
+    <row r="25" spans="1:11" s="31" customFormat="1" ht="42" customHeight="1">
+      <c r="A25" s="30"/>
+      <c r="B25" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="C24" s="42"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="42"/>
-      <c r="J24" s="12"/>
-    </row>
-    <row r="25" spans="1:11" s="30" customFormat="1" ht="42" customHeight="1">
-      <c r="A25" s="29"/>
-      <c r="B25" s="43" t="s">
-        <v>73</v>
-      </c>
-      <c r="C25" s="43"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="43"/>
-      <c r="G25" s="43"/>
-      <c r="J25" s="12"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
+      <c r="J25" s="13"/>
     </row>
     <row r="26" spans="1:11" ht="39.950000000000003" customHeight="1">
       <c r="A26" s="1"/>
-      <c r="B26" s="42"/>
-      <c r="C26" s="42"/>
-      <c r="D26" s="42"/>
-      <c r="E26" s="42"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="42"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="41"/>
     </row>
     <row r="27" spans="1:11">
       <c r="D27" s="2"/>
@@ -3031,7 +3102,7 @@
     <col min="1" max="1" width="10.625" style="2" customWidth="1"/>
     <col min="2" max="2" width="25.625" style="2" customWidth="1"/>
     <col min="3" max="3" width="62.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="62.625" style="31" customWidth="1"/>
+    <col min="4" max="4" width="62.625" style="32" customWidth="1"/>
     <col min="5" max="7" width="62.625" style="2" customWidth="1"/>
     <col min="8" max="257" width="9" style="2"/>
     <col min="258" max="258" width="20.75" style="2" customWidth="1"/>
@@ -3478,154 +3549,154 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="120" customHeight="1" thickBot="1">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="AG1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="AG1" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33" s="32" customFormat="1" ht="78" customHeight="1" thickTop="1" thickBot="1">
+    </row>
+    <row r="2" spans="1:33" s="33" customFormat="1" ht="78" customHeight="1" thickTop="1" thickBot="1">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="4">
-        <f>'03월23일'!C2</f>
-        <v>43913</v>
+        <f>'03월30일'!C2</f>
+        <v>43920</v>
       </c>
       <c r="D2" s="4">
         <f>C2+1</f>
-        <v>43914</v>
+        <v>43921</v>
       </c>
       <c r="E2" s="5">
         <f>D2+1</f>
-        <v>43915</v>
+        <v>43922</v>
       </c>
       <c r="F2" s="4">
         <f>E2+1</f>
-        <v>43916</v>
+        <v>43923</v>
       </c>
       <c r="G2" s="4">
         <f>F2+1</f>
-        <v>43917</v>
-      </c>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-    </row>
-    <row r="3" spans="1:33" s="12" customFormat="1" ht="54.95" customHeight="1" thickTop="1">
-      <c r="A3" s="45" t="s">
+        <v>43924</v>
+      </c>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+    </row>
+    <row r="3" spans="1:33" s="13" customFormat="1" ht="54.95" customHeight="1" thickTop="1">
+      <c r="A3" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="E3" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="F3" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="G3" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="D3" s="33" t="s">
+    </row>
+    <row r="4" spans="1:33" s="13" customFormat="1" ht="54.95" customHeight="1">
+      <c r="A4" s="45"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="E3" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33" s="12" customFormat="1" ht="54.95" customHeight="1">
-      <c r="A4" s="46"/>
-      <c r="B4" s="48"/>
-      <c r="C4" s="13" t="s">
+      <c r="D4" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="E4" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="F4" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="G4" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="G4" s="13" t="s">
+    </row>
+    <row r="5" spans="1:33" s="13" customFormat="1" ht="54.95" customHeight="1">
+      <c r="A5" s="45"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="16" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="5" spans="1:33" s="12" customFormat="1" ht="54.95" customHeight="1">
-      <c r="A5" s="46"/>
-      <c r="B5" s="48"/>
-      <c r="C5" s="16" t="s">
+      <c r="D5" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="E5" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="F5" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="G5" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="G5" s="14" t="s">
+    </row>
+    <row r="6" spans="1:33" s="13" customFormat="1" ht="54.95" customHeight="1">
+      <c r="A6" s="45"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="14" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="6" spans="1:33" s="12" customFormat="1" ht="54.95" customHeight="1">
-      <c r="A6" s="46"/>
-      <c r="B6" s="48"/>
-      <c r="C6" s="15" t="s">
+      <c r="D6" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="E6" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="F6" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="G6" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="G6" s="15" t="s">
+    </row>
+    <row r="7" spans="1:33" s="13" customFormat="1" ht="54.95" customHeight="1">
+      <c r="A7" s="45"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="14" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="7" spans="1:33" s="12" customFormat="1" ht="54.95" customHeight="1">
-      <c r="A7" s="46"/>
-      <c r="B7" s="48"/>
-      <c r="C7" s="15" t="s">
+      <c r="D7" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="E7" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="F7" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="G7" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="G7" s="15" t="s">
+    </row>
+    <row r="8" spans="1:33" s="13" customFormat="1" ht="54.95" customHeight="1" thickBot="1">
+      <c r="A8" s="45"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="19" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="8" spans="1:33" s="12" customFormat="1" ht="54.95" customHeight="1" thickBot="1">
-      <c r="A8" s="46"/>
-      <c r="B8" s="48"/>
-      <c r="C8" s="18" t="s">
+      <c r="D8" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="D8" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="E8" s="34" t="s">
+      <c r="E8" s="15" t="s">
         <v>100</v>
       </c>
       <c r="F8" s="15" t="s">
@@ -3635,305 +3706,299 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:33" s="12" customFormat="1" ht="54.95" customHeight="1" thickTop="1">
-      <c r="A9" s="46"/>
-      <c r="B9" s="45" t="s">
+    <row r="9" spans="1:33" s="13" customFormat="1" ht="54.95" customHeight="1" thickTop="1">
+      <c r="A9" s="45"/>
+      <c r="B9" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="8"/>
+    </row>
+    <row r="10" spans="1:33" s="13" customFormat="1" ht="54.95" customHeight="1">
+      <c r="A10" s="45"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8" t="s">
+      <c r="D10" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="8"/>
-    </row>
-    <row r="10" spans="1:33" s="12" customFormat="1" ht="54.95" customHeight="1">
-      <c r="A10" s="46"/>
-      <c r="B10" s="46"/>
-      <c r="C10" s="13" t="s">
+      <c r="E10" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="F10" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="D10" s="35" t="s">
+      <c r="G10" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="E10" s="13" t="s">
+    </row>
+    <row r="11" spans="1:33" s="13" customFormat="1" ht="54.95" customHeight="1">
+      <c r="A11" s="45"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="D11" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="G10" s="13" t="s">
+      <c r="E11" s="35" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="11" spans="1:33" s="12" customFormat="1" ht="54.95" customHeight="1">
-      <c r="A11" s="46"/>
-      <c r="B11" s="46"/>
-      <c r="C11" s="17" t="s">
+      <c r="F11" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="G11" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="E11" s="14" t="s">
+    </row>
+    <row r="12" spans="1:33" s="13" customFormat="1" ht="54.95" customHeight="1">
+      <c r="A12" s="45"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="D12" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="G11" s="14" t="s">
+      <c r="E12" s="14" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="12" spans="1:33" s="12" customFormat="1" ht="54.95" customHeight="1">
-      <c r="A12" s="46"/>
-      <c r="B12" s="46"/>
-      <c r="C12" s="14" t="s">
+      <c r="F12" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="G12" s="14" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" s="13" customFormat="1" ht="54.95" customHeight="1">
+      <c r="A13" s="45"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="D13" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="E13" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="G12" s="13" t="s">
+      <c r="F13" s="14" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="13" spans="1:33" s="12" customFormat="1" ht="54.95" customHeight="1">
-      <c r="A13" s="46"/>
-      <c r="B13" s="46"/>
-      <c r="C13" s="13" t="s">
+      <c r="G13" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="D13" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="E13" s="13" t="s">
+    </row>
+    <row r="14" spans="1:33" s="13" customFormat="1" ht="54.95" customHeight="1" thickBot="1">
+      <c r="A14" s="45"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+    </row>
+    <row r="15" spans="1:33" s="13" customFormat="1" ht="60" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A15" s="46"/>
+      <c r="B15" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="F13" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="G13" s="14" t="s">
+      <c r="D15" s="23" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="14" spans="1:33" s="12" customFormat="1" ht="54.95" customHeight="1" thickBot="1">
-      <c r="A14" s="46"/>
-      <c r="B14" s="46"/>
-      <c r="C14" s="18" t="s">
+      <c r="E15" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="G15" s="23" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" ht="54.95" customHeight="1" thickTop="1">
+      <c r="A16" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="E16" s="8"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+    </row>
+    <row r="17" spans="1:9" ht="54.95" customHeight="1">
+      <c r="A17" s="45"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="E17" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="F17" s="36" t="s">
+        <v>126</v>
+      </c>
+      <c r="G17" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="H17" s="13"/>
+    </row>
+    <row r="18" spans="1:9" ht="54.95" customHeight="1">
+      <c r="A18" s="45"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="G18" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+    </row>
+    <row r="19" spans="1:9" ht="54.95" customHeight="1">
+      <c r="A19" s="45"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="F19" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="G19" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+    </row>
+    <row r="20" spans="1:9" ht="54.95" customHeight="1">
+      <c r="A20" s="45"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+    </row>
+    <row r="21" spans="1:9" ht="54.95" customHeight="1" thickBot="1">
+      <c r="A21" s="45"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D21" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="E21" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="F14" s="18" t="s">
+      <c r="F21" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="G14" s="18" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:33" s="12" customFormat="1" ht="60" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A15" s="47"/>
-      <c r="B15" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="D15" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="E15" s="21" t="s">
-        <v>124</v>
-      </c>
-      <c r="F15" s="21" t="s">
-        <v>125</v>
-      </c>
-      <c r="G15" s="21" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="16" spans="1:33" ht="54.95" customHeight="1" thickTop="1">
-      <c r="A16" s="45" t="s">
-        <v>127</v>
-      </c>
-      <c r="B16" s="45" t="s">
-        <v>101</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="D16" s="23"/>
-      <c r="E16" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="F16" s="13"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-    </row>
-    <row r="17" spans="1:9" ht="54.95" customHeight="1">
-      <c r="A17" s="46"/>
-      <c r="B17" s="46"/>
-      <c r="C17" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="F17" s="36" t="s">
-        <v>130</v>
-      </c>
-      <c r="G17" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="H17" s="12"/>
-    </row>
-    <row r="18" spans="1:9" ht="54.95" customHeight="1">
-      <c r="A18" s="46"/>
-      <c r="B18" s="46"/>
-      <c r="C18" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="F18" s="37" t="s">
-        <v>133</v>
-      </c>
-      <c r="G18" s="38" t="s">
-        <v>134</v>
-      </c>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-    </row>
-    <row r="19" spans="1:9" ht="54.95" customHeight="1">
-      <c r="A19" s="46"/>
-      <c r="B19" s="46"/>
-      <c r="C19" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="D19" s="36" t="s">
-        <v>136</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="G19" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-    </row>
-    <row r="20" spans="1:9" ht="54.95" customHeight="1">
-      <c r="A20" s="46"/>
-      <c r="B20" s="46"/>
-      <c r="C20" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="D20" s="14" t="s">
+      <c r="G21" s="19"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+    </row>
+    <row r="22" spans="1:9" ht="54.95" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A22" s="46"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="E22" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="F22" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="G22" s="39" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" s="31" customFormat="1" ht="42" customHeight="1" thickTop="1">
+      <c r="B23" s="40" t="s">
         <v>141</v>
       </c>
-      <c r="E20" s="14" t="s">
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+    </row>
+    <row r="24" spans="1:9" s="31" customFormat="1" ht="42" customHeight="1">
+      <c r="B24" s="41" t="s">
         <v>142</v>
       </c>
-      <c r="F20" s="14" t="s">
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
+    </row>
+    <row r="25" spans="1:9" s="31" customFormat="1" ht="42" customHeight="1">
+      <c r="B25" s="41" t="s">
         <v>143</v>
       </c>
-      <c r="G20" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-    </row>
-    <row r="21" spans="1:9" ht="54.95" customHeight="1" thickBot="1">
-      <c r="A21" s="46"/>
-      <c r="B21" s="46"/>
-      <c r="C21" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="E21" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="F21" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="G21" s="18"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-    </row>
-    <row r="22" spans="1:9" ht="54.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A22" s="47"/>
-      <c r="B22" s="47"/>
-      <c r="C22" s="39" t="s">
-        <v>145</v>
-      </c>
-      <c r="D22" s="39" t="s">
-        <v>145</v>
-      </c>
-      <c r="E22" s="39" t="s">
-        <v>145</v>
-      </c>
-      <c r="F22" s="40" t="s">
-        <v>146</v>
-      </c>
-      <c r="G22" s="40" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" s="30" customFormat="1" ht="42" customHeight="1" thickTop="1">
-      <c r="B23" s="41" t="s">
-        <v>147</v>
-      </c>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="41"/>
-    </row>
-    <row r="24" spans="1:9" s="30" customFormat="1" ht="42" customHeight="1">
-      <c r="B24" s="42" t="s">
-        <v>148</v>
-      </c>
-      <c r="C24" s="42"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="42"/>
-    </row>
-    <row r="25" spans="1:9" s="30" customFormat="1" ht="42" customHeight="1">
-      <c r="B25" s="42" t="s">
-        <v>149</v>
-      </c>
-      <c r="C25" s="42"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="42"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
     </row>
     <row r="26" spans="1:9" ht="39.950000000000003" customHeight="1">
       <c r="B26" s="1"/>

--- a/foodtable/2.xlsx
+++ b/foodtable/2.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2. 복리후생\2017년\3. 식당\2020년 식단표\0330\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2. 복리후생\2017년\3. 식당\2020년 식단표\0406\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="18660" windowHeight="12120"/>
+    <workbookView xWindow="360" yWindow="105" windowWidth="17910" windowHeight="12120"/>
   </bookViews>
   <sheets>
-    <sheet name="03월30일" sheetId="1" r:id="rId1"/>
+    <sheet name="04월06일" sheetId="1" r:id="rId1"/>
     <sheet name="영문" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'03월30일'!$A$1:$H$25</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'04월06일'!$A$1:$H$25</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">영문!$A$1:$H$25</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="144">
   <si>
     <t xml:space="preserve">주 간 식 단 표 </t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -55,27 +55,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>고구마영양밥&amp;양념장</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>콩나물밥&amp;양념장</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>[봄봄봄봄이왔네요♬]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>들깨미역국</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>맑은콩나물국</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>쑥갓어묵국</t>
+    <t>냉이된장국</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>새알미역국</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -83,27 +67,35 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>꽃피운비빔밥</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>달콤고갈비</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>매콤두부무조림</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>매콤김치참치볶음</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>김치두루치기</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>달걀프라이&amp;약고추장</t>
+    <t>경상도식쇠고깃국</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>만둣국</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>매콤코다리찜</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>콩나물해물찜</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>산적새송이구이</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>구운손만두&amp;양념장</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>매콤모듬장조림</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼색달걀찜</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -111,27 +103,15 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>꿀탕수육</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>온두부&amp;양념장</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>카레소스</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>두부젓국</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>맛살겨자냉채무침</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>미나리무생채</t>
+    <t>이연복배추찜</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>야채춘권&amp;머스타드S</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>온두부</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -139,11 +119,19 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>고구마떡맛탕</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>사모사튀김&amp;요거트S</t>
+    <t>참나물묵무침</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>콩나물무침</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>도시락김</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>야채쫄면</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -172,67 +160,55 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>추가밥</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>면기누들떡볶이</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>햄말이주먹밥</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>김치볶음밥</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>얼큰닭칼국수</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>장조림버터비빔밥</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">     &amp;장각닭다리통닭</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>지단부추잔치국수</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>타워함박스테이크</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>채소장아찌</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>해쉬포테이토</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>얇은단무지</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>그린샐러드</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>마약토스트</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>샐러드스파게티</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>얼린요구르트</t>
+    <t>백미밥</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;동파육청경채덮밥&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">     면기가득덴뿌라</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>찹쌀누룽지나가사끼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>치즈부대찌개+라면</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>에그함박&amp;매콤S</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>후리가케밥</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">       고추장삼각김밥</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>토마토스크램블에그</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>흑임자우동샐러드</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>초생강&amp;락교</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>단무지</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>감자튀김&amp;케찹</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -264,63 +240,79 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>백미밥</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>뚝등뼈해장국</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>뚝돼지찌개</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>뚝배기김치알밥</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>면기쫄면</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>참치김가루밥&amp;위생장갑</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>옛날소세지전&amp;케찹</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>간장불고기</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;서문시장납작만두</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>치즈달콤달걀찜</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>김피탕(김치피자탕수육)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>콩나물무침</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>락교&amp;초생강</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>치킨커틀렛&amp;데미S</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>바나나우유</t>
+    <t>&lt;장튼튼면역력튼튼&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>고구마밥&amp;양념장</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[버릴게없는건강DAY]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>크림스프&amp;마늘바게트</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>시래기된장국</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>닭곰탕</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>얼음동동식혜</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>뜨끈돈육도토리묵밥</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>토마토스파게티</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>제육두루치기</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>고구마고로케&amp;머스타드S</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>닭가슴살녹두죽</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>달콤어묵채조림</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>달걀프라이</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>상추겉절이</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>채소장아찌</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>떡갈비또띠아</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>생선커틀렛&amp;타르타르S</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>요구르트</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -365,19 +357,32 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>중식</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A코너
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="32"/>
+        <rFont val="HY강M"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>(4,500원)</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>Muti-grain Rice</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Nutritious Rice with Sweet Potato</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bean Sprouts Rice</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>[Spring has come♬]</t>
+    <t>Soybean Paste Soup</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -385,39 +390,39 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Bean Sprouts Soup</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fish Cake Soup</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Eggs Soup</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Blossom Bibimbab</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sweet Mackerel</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Braised Tofu</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stir-fried Kimchi,Tuna</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stir-fried Spicy Pork &amp; Kimchi</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fried Egg&amp;hot pepper paste</t>
+    <t>Egg Soup</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spicy Beef Soup</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dumpling Soup</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Braised Pollack</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Steamed Seafood</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Grilled Mushrooms,Patties</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fried Dumplings</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pork Boiled down in soy S</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Steamed Eggs</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -425,27 +430,15 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Sweet and Sour Pork</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Boiled Tofu</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Curry Sauce</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tofu, Salted Shrimp Soup</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Chilled Crabmeat Salad</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shredded Daikon</t>
+    <t>Steamed Napa Cabbage</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpringRolls&amp;Mustard</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Steamed Tofu</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -453,15 +446,19 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Sugar Glazed Sweet Potato</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fried Samosa&amp;Yogurt S</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Kimkchi</t>
+    <t>Seasoend Chamnamul, Acorn</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Braised Meatball</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Laver</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spicy Cold Chewy Noodles</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -469,51 +466,76 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">B코너
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="32"/>
+        <rFont val="HY강M"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>(4,500원)</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>Udon Soup</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Additional Rice</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Noodle Tteok-bokki</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ham Rice Ball</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Kimchi Fried Rice</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Spicy Chicken noodle Soup</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Soy S Braised Pork Rice</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;Fried Chicken Drumsticks</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Banquet Noodles</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tower Hamburger Steak</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pickled Vegetable</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hash Potato</t>
+    <t>Nagasaki Spicy Seafood</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rice</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;Pork Bowl with Bok choy&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bowl full of tempura</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Noodle with Crispy Rice</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sausage Stew+Ramen</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Egg Hamburger Steak</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Furigake Rice</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">       Triangular Kimbab</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scrambled Eggs, Tomato</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Udon Salad</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seasoned Bean Sprouts</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rakkyo&amp;Pickled ginger</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -521,23 +543,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Green Salad</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Egg Toast</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fusilli Pizza Salad</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Frozen Yogurt</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Kimchi</t>
+    <t>French Fries&amp;Ketchup</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>음료</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -561,30 +571,35 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Rice</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rice with Kimchi</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pork Hangover Soup</t>
+    <t>석식</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;Immunizing Food&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sweet Potato Rice</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Cheer up DAY]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Tuna Seaweed Rice</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Pork Stew</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>and Fish Roe</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Spicy Cold Chewy Noodles</t>
+    <t>Boiled Chicken Soup</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sweet Rice Drink</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rice &amp;Acorn Jelly Soup</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -592,19 +607,19 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Sausages&amp;Ketchup</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pork Bulgogi</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;Flat Dumplings</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Steamed Cheese Eggs</t>
+    <t>Stir-fried Pork</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sweet Potato Croquette</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chicken Rice Porridge</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stir-fired Fish Cake</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -612,19 +627,31 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Seasoned Bean Sprouts</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rakkyo&amp;Pickled ginger</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Chicken Cutlet&amp;Demi S</t>
+    <t>Seasoned Lettuce</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pickled Vegetabls</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tortilla Tteok-galbi</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish Cutlet&amp;Tartar S</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Banana Milk</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,500원</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,500원</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -647,7 +674,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -745,9 +772,8 @@
       <charset val="129"/>
     </font>
     <font>
-      <b/>
-      <sz val="35"/>
-      <color rgb="FFC00000"/>
+      <sz val="20"/>
+      <color theme="1"/>
       <name val="HY강M"/>
       <family val="1"/>
       <charset val="129"/>
@@ -755,14 +781,7 @@
     <font>
       <b/>
       <sz val="35"/>
-      <color rgb="FF346129"/>
-      <name val="HY강M"/>
-      <family val="1"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="20"/>
-      <color theme="1"/>
+      <color rgb="FFC00000"/>
       <name val="HY강M"/>
       <family val="1"/>
       <charset val="129"/>
@@ -786,6 +805,22 @@
     <font>
       <b/>
       <sz val="36"/>
+      <name val="HY강M"/>
+      <family val="1"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="35"/>
+      <color rgb="FF346129"/>
+      <name val="HY강M"/>
+      <family val="1"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="36"/>
+      <color rgb="FF346129"/>
       <name val="HY강M"/>
       <family val="1"/>
       <charset val="129"/>
@@ -828,22 +863,6 @@
     <font>
       <sz val="48"/>
       <color theme="1"/>
-      <name val="HY강M"/>
-      <family val="1"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="28"/>
-      <color rgb="FFC00000"/>
-      <name val="HY강M"/>
-      <family val="1"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="32"/>
-      <color rgb="FFC00000"/>
       <name val="HY강M"/>
       <family val="1"/>
       <charset val="129"/>
@@ -1002,16 +1021,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1039,19 +1058,13 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1060,19 +1073,22 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1084,61 +1100,58 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="25" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="24" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1256,16 +1269,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>4024312</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>71438</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>166688</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>285750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>271461</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>538163</xdr:rowOff>
+      <xdr:colOff>1176337</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1274,8 +1287,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="11558587" y="13777913"/>
-          <a:ext cx="1019174" cy="466725"/>
+          <a:off x="12472988" y="6972300"/>
+          <a:ext cx="1009649" cy="471487"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1337,14 +1350,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>4691062</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>261937</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>938211</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1271586</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>561975</xdr:rowOff>
     </xdr:to>
@@ -1355,8 +1368,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="16997362" y="8172450"/>
-          <a:ext cx="1019174" cy="466725"/>
+          <a:off x="22112287" y="8172450"/>
+          <a:ext cx="1009649" cy="466725"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1419,15 +1432,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>3952875</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>309563</xdr:rowOff>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>200024</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1057274</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>585788</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1436,8 +1449,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="21031200" y="13320713"/>
-          <a:ext cx="1019174" cy="471487"/>
+          <a:off x="17125950" y="7500938"/>
+          <a:ext cx="1009649" cy="466725"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1579,15 +1592,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>4238615</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>428616</xdr:rowOff>
+      <xdr:colOff>166688</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>285750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>485764</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>204779</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1176337</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1596,89 +1609,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="16544915" y="7810491"/>
-          <a:ext cx="1019174" cy="471488"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FF0000"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="2400" b="1">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:latin typeface="MD아롱체" pitchFamily="18" charset="-127"/>
-              <a:ea typeface="MD아롱체" pitchFamily="18" charset="-127"/>
-            </a:rPr>
-            <a:t>NEW</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="4000" b="1">
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-            <a:latin typeface="HY나무M" pitchFamily="18" charset="-127"/>
-            <a:ea typeface="HY나무M" pitchFamily="18" charset="-127"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>4024312</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>71438</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>271461</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>538163</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="타원 3"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="11558587" y="13777913"/>
-          <a:ext cx="1019174" cy="466725"/>
+          <a:off x="12472988" y="6972300"/>
+          <a:ext cx="1009649" cy="471487"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1741,15 +1673,96 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>4333875</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>571500</xdr:rowOff>
+      <xdr:colOff>71437</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>214313</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1081086</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>681038</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="타원 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="17149762" y="6900863"/>
+          <a:ext cx="1009649" cy="466725"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="MD아롱체" pitchFamily="18" charset="-127"/>
+              <a:ea typeface="MD아롱체" pitchFamily="18" charset="-127"/>
+            </a:rPr>
+            <a:t>NEW</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="4000" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="HY나무M" pitchFamily="18" charset="-127"/>
+            <a:ea typeface="HY나무M" pitchFamily="18" charset="-127"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>71437</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>166688</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>581024</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>347662</xdr:rowOff>
+      <xdr:colOff>1081086</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>633413</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1758,8 +1771,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="21412200" y="12887325"/>
-          <a:ext cx="1019174" cy="471487"/>
+          <a:off x="21921787" y="8243888"/>
+          <a:ext cx="1009649" cy="466725"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -2115,7 +2128,7 @@
   <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" zoomScaleSheetLayoutView="40" workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2123,7 +2136,7 @@
     <col min="1" max="1" width="10.625" style="2" customWidth="1"/>
     <col min="2" max="2" width="25.625" style="2" customWidth="1"/>
     <col min="3" max="3" width="62.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="62.625" style="32" customWidth="1"/>
+    <col min="4" max="4" width="62.625" style="31" customWidth="1"/>
     <col min="5" max="7" width="62.625" style="2" customWidth="1"/>
     <col min="8" max="8" width="8.625" style="2" customWidth="1"/>
     <col min="9" max="257" width="9" style="2"/>
@@ -2571,495 +2584,501 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="120" customHeight="1" thickBot="1">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:11" s="7" customFormat="1" ht="78" customHeight="1" thickTop="1" thickBot="1">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="4">
-        <v>43920</v>
+        <v>43927</v>
       </c>
       <c r="D2" s="4">
         <f>C2+1</f>
-        <v>43921</v>
+        <v>43928</v>
       </c>
       <c r="E2" s="5">
         <f>D2+1</f>
-        <v>43922</v>
+        <v>43929</v>
       </c>
       <c r="F2" s="4">
         <f>E2+1</f>
-        <v>43923</v>
+        <v>43930</v>
       </c>
       <c r="G2" s="4">
         <f>F2+1</f>
-        <v>43924</v>
+        <v>43931</v>
       </c>
       <c r="H2" s="6"/>
     </row>
-    <row r="3" spans="1:11" s="13" customFormat="1" ht="54.95" customHeight="1" thickTop="1">
-      <c r="A3" s="44" t="s">
+    <row r="3" spans="1:11" s="11" customFormat="1" ht="54.95" customHeight="1" thickTop="1">
+      <c r="A3" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="42" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="10"/>
+    </row>
+    <row r="4" spans="1:11" s="11" customFormat="1" ht="54.95" customHeight="1">
+      <c r="A4" s="43"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="D4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="11" t="s">
+      <c r="E4" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="12"/>
-    </row>
-    <row r="4" spans="1:11" s="13" customFormat="1" ht="54.95" customHeight="1">
-      <c r="A4" s="45"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="14" t="s">
+      <c r="F4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="G4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="H4" s="10"/>
+    </row>
+    <row r="5" spans="1:11" s="11" customFormat="1" ht="54.95" customHeight="1">
+      <c r="A5" s="43"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="D5" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="E5" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="12"/>
-    </row>
-    <row r="5" spans="1:11" s="13" customFormat="1" ht="54.95" customHeight="1">
-      <c r="A5" s="45"/>
-      <c r="B5" s="47"/>
-      <c r="C5" s="16" t="s">
+      <c r="F5" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="G5" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="H5" s="16"/>
+    </row>
+    <row r="6" spans="1:11" s="11" customFormat="1" ht="54.95" customHeight="1">
+      <c r="A6" s="43"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="D6" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="E6" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="18"/>
-    </row>
-    <row r="6" spans="1:11" s="13" customFormat="1" ht="54.95" customHeight="1">
-      <c r="A6" s="45"/>
-      <c r="B6" s="47"/>
-      <c r="C6" s="14" t="s">
+      <c r="F6" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="G6" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="H6" s="10"/>
+    </row>
+    <row r="7" spans="1:11" s="11" customFormat="1" ht="54.95" customHeight="1">
+      <c r="A7" s="43"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="D7" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="E7" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="12"/>
-    </row>
-    <row r="7" spans="1:11" s="13" customFormat="1" ht="54.95" customHeight="1">
-      <c r="A7" s="45"/>
-      <c r="B7" s="47"/>
-      <c r="C7" s="14" t="s">
+      <c r="F7" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="G7" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" spans="1:11" s="11" customFormat="1" ht="54.95" customHeight="1" thickBot="1">
+      <c r="A8" s="43"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="D8" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="1:11" s="11" customFormat="1" ht="54.95" customHeight="1" thickTop="1">
+      <c r="A9" s="43"/>
+      <c r="B9" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="C9" s="8"/>
+      <c r="D9" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H7" s="12"/>
-    </row>
-    <row r="8" spans="1:11" s="13" customFormat="1" ht="54.95" customHeight="1" thickBot="1">
-      <c r="A8" s="45"/>
-      <c r="B8" s="47"/>
-      <c r="C8" s="19" t="s">
+      <c r="E9" s="8"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="10"/>
+    </row>
+    <row r="10" spans="1:11" s="11" customFormat="1" ht="54.95" customHeight="1">
+      <c r="A10" s="43"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D10" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E10" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="1:11" s="11" customFormat="1" ht="54.95" customHeight="1">
+      <c r="A11" s="43"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" s="10"/>
+    </row>
+    <row r="12" spans="1:11" s="11" customFormat="1" ht="54.95" customHeight="1">
+      <c r="A12" s="43"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" s="10"/>
+    </row>
+    <row r="13" spans="1:11" s="11" customFormat="1" ht="54.95" customHeight="1">
+      <c r="A13" s="43"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" s="16"/>
+    </row>
+    <row r="14" spans="1:11" s="11" customFormat="1" ht="54.95" customHeight="1" thickBot="1">
+      <c r="A14" s="43"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="10"/>
+    </row>
+    <row r="15" spans="1:11" s="11" customFormat="1" ht="60" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A15" s="44"/>
+      <c r="B15" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="G15" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" s="10"/>
+      <c r="I15" s="23"/>
+    </row>
+    <row r="16" spans="1:11" ht="54.95" customHeight="1" thickTop="1">
+      <c r="A16" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H16" s="10"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+    </row>
+    <row r="17" spans="1:11" ht="54.95" customHeight="1">
+      <c r="A17" s="43"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="E17" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="F17" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" s="6"/>
-    </row>
-    <row r="9" spans="1:11" s="13" customFormat="1" ht="54.95" customHeight="1" thickTop="1">
-      <c r="A9" s="45"/>
-      <c r="B9" s="44" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="12"/>
-    </row>
-    <row r="10" spans="1:11" s="13" customFormat="1" ht="54.95" customHeight="1">
-      <c r="A10" s="45"/>
-      <c r="B10" s="45"/>
-      <c r="C10" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="H10" s="6"/>
-    </row>
-    <row r="11" spans="1:11" s="13" customFormat="1" ht="54.95" customHeight="1">
-      <c r="A11" s="45"/>
-      <c r="B11" s="45"/>
-      <c r="C11" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="F11" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="G11" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="H11" s="12"/>
-    </row>
-    <row r="12" spans="1:11" s="13" customFormat="1" ht="54.95" customHeight="1">
-      <c r="A12" s="45"/>
-      <c r="B12" s="45"/>
-      <c r="C12" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="G12" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="H12" s="12"/>
-    </row>
-    <row r="13" spans="1:11" s="13" customFormat="1" ht="54.95" customHeight="1">
-      <c r="A13" s="45"/>
-      <c r="B13" s="45"/>
-      <c r="C13" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="G13" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="H13" s="18"/>
-    </row>
-    <row r="14" spans="1:11" s="13" customFormat="1" ht="54.95" customHeight="1" thickBot="1">
-      <c r="A14" s="45"/>
-      <c r="B14" s="45"/>
-      <c r="C14" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="12"/>
-    </row>
-    <row r="15" spans="1:11" s="13" customFormat="1" ht="60" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A15" s="46"/>
-      <c r="B15" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="F15" s="19" t="s">
+      <c r="G17" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="G15" s="23" t="s">
+      <c r="H17" s="10"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+    </row>
+    <row r="18" spans="1:11" ht="54.95" customHeight="1">
+      <c r="A18" s="43"/>
+      <c r="B18" s="43"/>
+      <c r="C18" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="H15" s="12"/>
-      <c r="I15" s="24"/>
-    </row>
-    <row r="16" spans="1:11" ht="54.95" customHeight="1" thickTop="1">
-      <c r="A16" s="44" t="s">
+      <c r="D18" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="B16" s="44" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-    </row>
-    <row r="17" spans="1:11" ht="54.95" customHeight="1">
-      <c r="A17" s="45"/>
-      <c r="B17" s="45"/>
-      <c r="C17" s="14" t="s">
+      <c r="E18" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="D17" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="F17" s="16" t="s">
+      <c r="F18" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="G17" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="H17" s="12"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-    </row>
-    <row r="18" spans="1:11" ht="54.95" customHeight="1">
-      <c r="A18" s="45"/>
-      <c r="B18" s="45"/>
-      <c r="C18" s="16" t="s">
+      <c r="G18" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="H18" s="10"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+    </row>
+    <row r="19" spans="1:11" ht="54.95" customHeight="1">
+      <c r="A19" s="43"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="E18" s="21" t="s">
+      <c r="D19" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="F18" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="G18" s="21" t="s">
+      <c r="E19" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="H18" s="12"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-    </row>
-    <row r="19" spans="1:11" ht="54.95" customHeight="1">
-      <c r="A19" s="45"/>
-      <c r="B19" s="45"/>
-      <c r="C19" s="14" t="s">
+      <c r="F19" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="G19" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="E19" s="14" t="s">
+      <c r="H19" s="16"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+    </row>
+    <row r="20" spans="1:11" ht="54.95" customHeight="1">
+      <c r="A20" s="43"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="F19" s="16" t="s">
+      <c r="D20" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="G19" s="21" t="s">
+      <c r="E20" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="H19" s="18"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-    </row>
-    <row r="20" spans="1:11" ht="54.95" customHeight="1">
-      <c r="A20" s="45"/>
-      <c r="B20" s="45"/>
-      <c r="C20" s="14" t="s">
+      <c r="F20" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="G20" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="H20" s="10"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+    </row>
+    <row r="21" spans="1:11" ht="54.95" customHeight="1" thickBot="1">
+      <c r="A21" s="43"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="H21" s="10"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+    </row>
+    <row r="22" spans="1:11" ht="54.95" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A22" s="44"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="F20" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="G20" s="14" t="s">
+      <c r="D22" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="E22" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="H20" s="12"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-    </row>
-    <row r="21" spans="1:11" ht="54.95" customHeight="1" thickBot="1">
-      <c r="A21" s="45"/>
-      <c r="B21" s="45"/>
-      <c r="C21" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="E21" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="F21" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="G21" s="19"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-    </row>
-    <row r="22" spans="1:11" ht="54.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A22" s="46"/>
-      <c r="B22" s="46"/>
-      <c r="C22" s="27" t="s">
+      <c r="F22" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="G22" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="H22" s="23"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+    </row>
+    <row r="23" spans="1:11" s="30" customFormat="1" ht="42" customHeight="1" thickTop="1">
+      <c r="A23" s="28"/>
+      <c r="B23" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="D22" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="E22" s="27" t="s">
+      <c r="C23" s="38"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="11"/>
+    </row>
+    <row r="24" spans="1:11" s="30" customFormat="1" ht="42" customHeight="1">
+      <c r="A24" s="29"/>
+      <c r="B24" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="F22" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="G22" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="H22" s="24"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-    </row>
-    <row r="23" spans="1:11" s="31" customFormat="1" ht="42" customHeight="1" thickTop="1">
-      <c r="A23" s="29"/>
-      <c r="B23" s="40" t="s">
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="39"/>
+      <c r="J24" s="11"/>
+    </row>
+    <row r="25" spans="1:11" s="30" customFormat="1" ht="42" customHeight="1">
+      <c r="A25" s="29"/>
+      <c r="B25" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="C23" s="40"/>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="13"/>
-    </row>
-    <row r="24" spans="1:11" s="31" customFormat="1" ht="42" customHeight="1">
-      <c r="A24" s="30"/>
-      <c r="B24" s="41" t="s">
-        <v>71</v>
-      </c>
-      <c r="C24" s="41"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="41"/>
-      <c r="J24" s="13"/>
-    </row>
-    <row r="25" spans="1:11" s="31" customFormat="1" ht="42" customHeight="1">
-      <c r="A25" s="30"/>
-      <c r="B25" s="42" t="s">
-        <v>72</v>
-      </c>
-      <c r="C25" s="42"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="42"/>
-      <c r="J25" s="13"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
+      <c r="J25" s="11"/>
     </row>
     <row r="26" spans="1:11" ht="39.950000000000003" customHeight="1">
       <c r="A26" s="1"/>
-      <c r="B26" s="41"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="41"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="39"/>
     </row>
     <row r="27" spans="1:11">
       <c r="D27" s="2"/>
@@ -3094,7 +3113,7 @@
   <dimension ref="A1:AG45"/>
   <sheetViews>
     <sheetView zoomScale="40" zoomScaleNormal="40" zoomScaleSheetLayoutView="40" workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3102,7 +3121,7 @@
     <col min="1" max="1" width="10.625" style="2" customWidth="1"/>
     <col min="2" max="2" width="25.625" style="2" customWidth="1"/>
     <col min="3" max="3" width="62.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="62.625" style="32" customWidth="1"/>
+    <col min="4" max="4" width="62.625" style="31" customWidth="1"/>
     <col min="5" max="7" width="62.625" style="2" customWidth="1"/>
     <col min="8" max="257" width="9" style="2"/>
     <col min="258" max="258" width="20.75" style="2" customWidth="1"/>
@@ -3549,456 +3568,458 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="120" customHeight="1" thickBot="1">
-      <c r="A1" s="43" t="s">
-        <v>73</v>
-      </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
+      <c r="A1" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
       <c r="AG1" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33" s="33" customFormat="1" ht="78" customHeight="1" thickTop="1" thickBot="1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" s="32" customFormat="1" ht="78" customHeight="1" thickTop="1" thickBot="1">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="4">
-        <f>'03월30일'!C2</f>
-        <v>43920</v>
+        <f>'04월06일'!C2</f>
+        <v>43927</v>
       </c>
       <c r="D2" s="4">
         <f>C2+1</f>
-        <v>43921</v>
+        <v>43928</v>
       </c>
       <c r="E2" s="5">
         <f>D2+1</f>
-        <v>43922</v>
+        <v>43929</v>
       </c>
       <c r="F2" s="4">
         <f>E2+1</f>
-        <v>43923</v>
+        <v>43930</v>
       </c>
       <c r="G2" s="4">
         <f>F2+1</f>
-        <v>43924</v>
-      </c>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-    </row>
-    <row r="3" spans="1:33" s="13" customFormat="1" ht="54.95" customHeight="1" thickTop="1">
-      <c r="A3" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="10" t="s">
+        <v>43931</v>
+      </c>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+    </row>
+    <row r="3" spans="1:33" s="11" customFormat="1" ht="54.95" customHeight="1" thickTop="1">
+      <c r="A3" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>75</v>
       </c>
       <c r="D3" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" s="11" customFormat="1" ht="54.95" customHeight="1">
+      <c r="A4" s="43"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="D4" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="F3" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="G3" s="11" t="s">
+      <c r="E4" s="12" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="4" spans="1:33" s="13" customFormat="1" ht="54.95" customHeight="1">
-      <c r="A4" s="45"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="14" t="s">
+      <c r="F4" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="G4" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="E4" s="15" t="s">
+    </row>
+    <row r="5" spans="1:33" s="11" customFormat="1" ht="54.95" customHeight="1">
+      <c r="A5" s="43"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="D5" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="E5" s="14" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="5" spans="1:33" s="13" customFormat="1" ht="54.95" customHeight="1">
-      <c r="A5" s="45"/>
-      <c r="B5" s="47"/>
-      <c r="C5" s="16" t="s">
+      <c r="F5" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="G5" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="E5" s="17" t="s">
+    </row>
+    <row r="6" spans="1:33" s="11" customFormat="1" ht="54.95" customHeight="1">
+      <c r="A6" s="43"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="D6" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="E6" s="14" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="6" spans="1:33" s="13" customFormat="1" ht="54.95" customHeight="1">
-      <c r="A6" s="45"/>
-      <c r="B6" s="47"/>
-      <c r="C6" s="14" t="s">
+      <c r="F6" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="G6" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="E6" s="15" t="s">
+    </row>
+    <row r="7" spans="1:33" s="11" customFormat="1" ht="54.95" customHeight="1">
+      <c r="A7" s="43"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="D7" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="E7" s="12" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="7" spans="1:33" s="13" customFormat="1" ht="54.95" customHeight="1">
-      <c r="A7" s="45"/>
-      <c r="B7" s="47"/>
-      <c r="C7" s="14" t="s">
+      <c r="F7" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="G7" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="E7" s="15" t="s">
+    </row>
+    <row r="8" spans="1:33" s="11" customFormat="1" ht="54.95" customHeight="1" thickBot="1">
+      <c r="A8" s="43"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="D8" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" s="11" customFormat="1" ht="54.95" customHeight="1" thickTop="1">
+      <c r="A9" s="43"/>
+      <c r="B9" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="C9" s="8"/>
+      <c r="D9" s="8" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="8" spans="1:33" s="13" customFormat="1" ht="54.95" customHeight="1" thickBot="1">
-      <c r="A8" s="45"/>
-      <c r="B8" s="47"/>
-      <c r="C8" s="19" t="s">
+      <c r="E9" s="8"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="D8" s="19" t="s">
+    </row>
+    <row r="10" spans="1:33" s="11" customFormat="1" ht="54.95" customHeight="1">
+      <c r="A10" s="43"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="D10" s="34" t="s">
         <v>100</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:33" s="13" customFormat="1" ht="54.95" customHeight="1" thickTop="1">
-      <c r="A9" s="45"/>
-      <c r="B9" s="44" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="8"/>
-    </row>
-    <row r="10" spans="1:33" s="13" customFormat="1" ht="54.95" customHeight="1">
-      <c r="A10" s="45"/>
-      <c r="B10" s="45"/>
-      <c r="C10" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>102</v>
       </c>
       <c r="E10" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="F10" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="G10" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="G10" s="34" t="s">
+    </row>
+    <row r="11" spans="1:33" s="11" customFormat="1" ht="54.95" customHeight="1">
+      <c r="A11" s="43"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="19" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="11" spans="1:33" s="13" customFormat="1" ht="54.95" customHeight="1">
-      <c r="A11" s="45"/>
-      <c r="B11" s="45"/>
-      <c r="C11" s="16" t="s">
+      <c r="D11" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="E11" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F11" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="E11" s="35" t="s">
+      <c r="G11" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="F11" s="21" t="s">
+    </row>
+    <row r="12" spans="1:33" s="11" customFormat="1" ht="54.95" customHeight="1">
+      <c r="A12" s="43"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="G11" s="16" t="s">
+      <c r="D12" s="14" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="12" spans="1:33" s="13" customFormat="1" ht="54.95" customHeight="1">
-      <c r="A12" s="45"/>
-      <c r="B12" s="45"/>
-      <c r="C12" s="16" t="s">
+      <c r="E12" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="F12" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="G12" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="F12" s="14" t="s">
+    </row>
+    <row r="13" spans="1:33" s="11" customFormat="1" ht="54.95" customHeight="1">
+      <c r="A13" s="43"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D13" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="G12" s="14" t="s">
+      <c r="E13" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" s="11" customFormat="1" ht="54.95" customHeight="1" thickBot="1">
+      <c r="A14" s="43"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+    </row>
+    <row r="15" spans="1:33" s="11" customFormat="1" ht="60" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A15" s="44"/>
+      <c r="B15" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="G15" s="22" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" ht="54.95" customHeight="1" thickTop="1">
+      <c r="A16" s="42" t="s">
+        <v>120</v>
+      </c>
+      <c r="B16" s="42" t="s">
+        <v>97</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="D16" s="24"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="13" spans="1:33" s="13" customFormat="1" ht="54.95" customHeight="1">
-      <c r="A13" s="45"/>
-      <c r="B13" s="45"/>
-      <c r="C13" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="G13" s="14" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="14" spans="1:33" s="13" customFormat="1" ht="54.95" customHeight="1" thickBot="1">
-      <c r="A14" s="45"/>
-      <c r="B14" s="45"/>
-      <c r="C14" s="19" t="s">
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+    </row>
+    <row r="17" spans="1:9" ht="54.95" customHeight="1">
+      <c r="A17" s="43"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="D17" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="E17" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="F17" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="E14" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-    </row>
-    <row r="15" spans="1:33" s="13" customFormat="1" ht="60" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A15" s="46"/>
-      <c r="B15" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="D15" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="E15" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="F15" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="G15" s="23" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="16" spans="1:33" ht="54.95" customHeight="1" thickTop="1">
-      <c r="A16" s="44" t="s">
-        <v>52</v>
-      </c>
-      <c r="B16" s="44" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-    </row>
-    <row r="17" spans="1:9" ht="54.95" customHeight="1">
-      <c r="A17" s="45"/>
-      <c r="B17" s="45"/>
-      <c r="C17" s="14" t="s">
+      <c r="G17" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="D17" s="21" t="s">
+      <c r="H17" s="11"/>
+    </row>
+    <row r="18" spans="1:9" ht="54.95" customHeight="1">
+      <c r="A18" s="43"/>
+      <c r="B18" s="43"/>
+      <c r="C18" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="E17" s="26" t="s">
-        <v>124</v>
-      </c>
-      <c r="F17" s="36" t="s">
+      <c r="E18" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="G17" s="21" t="s">
+      <c r="F18" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="H17" s="13"/>
-    </row>
-    <row r="18" spans="1:9" ht="54.95" customHeight="1">
-      <c r="A18" s="45"/>
-      <c r="B18" s="45"/>
-      <c r="C18" s="16" t="s">
+      <c r="G18" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="D18" s="21" t="s">
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+    </row>
+    <row r="19" spans="1:9" ht="54.95" customHeight="1">
+      <c r="A19" s="43"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="E18" s="21" t="s">
+      <c r="D19" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="F18" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="G18" s="21" t="s">
+      <c r="E19" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-    </row>
-    <row r="19" spans="1:9" ht="54.95" customHeight="1">
-      <c r="A19" s="45"/>
-      <c r="B19" s="45"/>
-      <c r="C19" s="15" t="s">
+      <c r="F19" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="G19" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="E19" s="14" t="s">
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+    </row>
+    <row r="20" spans="1:9" ht="54.95" customHeight="1">
+      <c r="A20" s="43"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="F19" s="37" t="s">
+      <c r="D20" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="G19" s="21" t="s">
+      <c r="E20" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-    </row>
-    <row r="20" spans="1:9" ht="54.95" customHeight="1">
-      <c r="A20" s="45"/>
-      <c r="B20" s="45"/>
-      <c r="C20" s="15" t="s">
+      <c r="F20" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="G20" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+    </row>
+    <row r="21" spans="1:9" ht="54.95" customHeight="1" thickBot="1">
+      <c r="A21" s="43"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="G21" s="17"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+    </row>
+    <row r="22" spans="1:9" ht="54.95" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A22" s="44"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="36" t="s">
         <v>139</v>
       </c>
-      <c r="F20" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="G20" s="14" t="s">
+      <c r="D22" s="36" t="s">
+        <v>139</v>
+      </c>
+      <c r="E22" s="36" t="s">
+        <v>139</v>
+      </c>
+      <c r="F22" s="37" t="s">
         <v>140</v>
       </c>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-    </row>
-    <row r="21" spans="1:9" ht="54.95" customHeight="1" thickBot="1">
-      <c r="A21" s="45"/>
-      <c r="B21" s="45"/>
-      <c r="C21" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="D21" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="E21" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="F21" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="G21" s="19"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-    </row>
-    <row r="22" spans="1:9" ht="54.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A22" s="46"/>
-      <c r="B22" s="46"/>
-      <c r="C22" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="D22" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="E22" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="F22" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="G22" s="39" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" s="31" customFormat="1" ht="42" customHeight="1" thickTop="1">
-      <c r="B23" s="40" t="s">
+      <c r="G22" s="37" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" s="30" customFormat="1" ht="42" customHeight="1" thickTop="1">
+      <c r="B23" s="38" t="s">
         <v>141</v>
       </c>
-      <c r="C23" s="40"/>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="40"/>
-    </row>
-    <row r="24" spans="1:9" s="31" customFormat="1" ht="42" customHeight="1">
-      <c r="B24" s="41" t="s">
+      <c r="C23" s="38"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38"/>
+    </row>
+    <row r="24" spans="1:9" s="30" customFormat="1" ht="42" customHeight="1">
+      <c r="B24" s="39" t="s">
         <v>142</v>
       </c>
-      <c r="C24" s="41"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="41"/>
-    </row>
-    <row r="25" spans="1:9" s="31" customFormat="1" ht="42" customHeight="1">
-      <c r="B25" s="41" t="s">
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="39"/>
+    </row>
+    <row r="25" spans="1:9" s="30" customFormat="1" ht="42" customHeight="1">
+      <c r="B25" s="39" t="s">
         <v>143</v>
       </c>
-      <c r="C25" s="41"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="39"/>
     </row>
     <row r="26" spans="1:9" ht="39.950000000000003" customHeight="1">
       <c r="B26" s="1"/>

--- a/foodtable/2.xlsx
+++ b/foodtable/2.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2. 복리후생\2017년\3. 식당\2020년 식단표\0406\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2. 복리후생\2017년\3. 식당\2020년 식단표\0420\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="17910" windowHeight="12120"/>
+    <workbookView xWindow="10320" yWindow="-165" windowWidth="17805" windowHeight="12570"/>
   </bookViews>
   <sheets>
-    <sheet name="04월06일" sheetId="1" r:id="rId1"/>
+    <sheet name="04월20일" sheetId="1" r:id="rId1"/>
     <sheet name="영문" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'04월06일'!$A$1:$H$25</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'04월20일'!$A$1:$H$25</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">영문!$A$1:$H$25</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="161">
   <si>
     <t xml:space="preserve">주 간 식 단 표 </t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -35,7 +35,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">A코너
+      <t xml:space="preserve">A메뉴
 </t>
     </r>
     <r>
@@ -55,11 +55,15 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>냉이된장국</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>새알미역국</t>
+    <t>고구마밥</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>잡곡밥</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>얼큰어묵국</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -67,35 +71,47 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>경상도식쇠고깃국</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>만둣국</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>매콤코다리찜</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>콩나물해물찜</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>산적새송이구이</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>구운손만두&amp;양념장</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>매콤모듬장조림</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>삼색달걀찜</t>
+    <t>김치비지찌개</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>들깨미역국</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>미소장국</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>닭가슴살하이라이스</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>매콤순대볶음</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>고등어구이&amp;와사비장</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>카레소스</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>옛날소세지전&amp;케찹</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>야채고로케&amp;케찹</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>미니돈까스&amp;데미S</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>온두부</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -103,23 +119,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>이연복배추찜</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>야채춘권&amp;머스타드S</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>온두부</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>유자청참나물무침</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>참나물묵무침</t>
+    <t>모듬장조림</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>비빔막국수</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -127,11 +131,15 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>도시락김</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>야채쫄면</t>
+    <t>된장유채무침</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>생선커틀렛&amp;타르타르S</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>생깻잎무침</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -139,8 +147,12 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>배추김치</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">B코너
+      <t xml:space="preserve">B메뉴
 </t>
     </r>
     <r>
@@ -156,7 +168,7 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>우동국물</t>
+    <t>&lt;마늘보쌈정식&gt;</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -164,51 +176,71 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;동파육청경채덮밥&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">     면기가득덴뿌라</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>찹쌀누룽지나가사끼</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>치즈부대찌개+라면</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>에그함박&amp;매콤S</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>후리가케밥</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">       고추장삼각김밥</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>토마토스크램블에그</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>흑임자우동샐러드</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>초생강&amp;락교</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>단무지</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>감자튀김&amp;케찹</t>
+    <t>백미밥</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>달콤단호박죽</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>김밥볶음밥</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>도토리묵냉국</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>얼큰닭칼국수</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>숯불두루치기덮밥</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>유부주머니꼬치어묵우동</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>치킨커틀렛오므라이스</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>마늘보쌈</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>채소장아찌</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>달걀프라이&amp;김가루</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>그린샐러드</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>콩나물막국수</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>배추&amp;상추&amp;오이&amp;쌈장</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>마약토스트</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>그린샐러드&amp;사우젼S</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>단팥뿌린찐빵</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -240,75 +272,71 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;장튼튼면역력튼튼&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>고구마밥&amp;양념장</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>[버릴게없는건강DAY]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>크림스프&amp;마늘바게트</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>시래기된장국</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>닭곰탕</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>얼음동동식혜</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>뜨끈돈육도토리묵밥</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>토마토스파게티</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>제육두루치기</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>고구마고로케&amp;머스타드S</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>닭가슴살녹두죽</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>달콤어묵채조림</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>달걀프라이</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>상추겉절이</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>채소장아찌</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>떡갈비또띠아</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>생선커틀렛&amp;타르타르S</t>
+    <t>&lt;식이섬유듬뿍&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;비벼먹는참치김치찌개&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>왕삼뚱이말이&amp;매콤S</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>돼지순대국밥+소면</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>우동국물</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>전주식콩나물국밥</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>야채볶음밥&amp;달걀프라이</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;다데기</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>참치김가루밥&amp;위생장갑</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>달걀프라이&amp;김가루</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>구운손만두</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>고구마별떡맛탕</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>김피탕(김치피자탕수육)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>꿀탕수육</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>생채겉절이</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>바나나우유</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>챔기름열무겉절이</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -357,12 +385,16 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>중식</t>
+    <t>L
+u
+n
+c
+h</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">A코너
+      <t xml:space="preserve">AMenu
 </t>
     </r>
     <r>
@@ -373,7 +405,7 @@
         <family val="1"/>
         <charset val="129"/>
       </rPr>
-      <t>(4,500원)</t>
+      <t>(4,500)</t>
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -382,7 +414,19 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Soybean Paste Soup</t>
+    <t>Sweet Potato Rice</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish Cake Soup</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eggs Soup</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pureed Soybean, Kimchi Soup</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -390,31 +434,43 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Egg Soup</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Spicy Beef Soup</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dumpling Soup</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Braised Pollack</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Steamed Seafood</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Grilled Mushrooms,Patties</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fried Dumplings</t>
+    <t>Miso Soup</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hashed Rice S</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stir-fried Korean Sausage</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Grilled Mackerel</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Curry Sauce</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sausages&amp;Ketchup</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vegetable Croquette</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mimi Pork Cutlet&amp;Demi S</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Steamed Tofu</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Silken Beancurd&amp;Marinade</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -422,43 +478,23 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Steamed Eggs</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Silken Beancurd</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Steamed Napa Cabbage</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SpringRolls&amp;Mustard</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Steamed Tofu</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Seasoned Chamnamul</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Seasoend Chamnamul, Acorn</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Braised Meatball</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Laver</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Spicy Cold Chewy Noodles</t>
+    <t>Spicy Buckwheat Noodles</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seasoned BeanSProuts</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seasoned Canola</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish Cutlet&amp;TarTar S</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sesame Leaves in Soy S</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -466,8 +502,12 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>Kimchi</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">B코너
+      <t xml:space="preserve">BMenu
 </t>
     </r>
     <r>
@@ -478,112 +518,155 @@
         <family val="1"/>
         <charset val="129"/>
       </rPr>
-      <t>(4,500원)</t>
+      <t>(4,500)</t>
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>&lt;Set Menu&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rice</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Additional Rice</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sweet Pumkin Porridge</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>fried Gimbap Rice</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Miso Soup</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Acorn Jelly Soup</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spicy Chicken noodle Soup</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Duruchigi with Rice</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>fried Tofu Udon</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chicken Cutlet Omelet</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boiled Pork Slices</t>
+  </si>
+  <si>
+    <t>Pickled Vegetable</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fried Egg&amp;Seaweed Powder</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Green Salad</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spicy Cold Chewy Noodles</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cabbage&amp;Tettuce&amp;Cucumber</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Egg Toast</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Green Salad</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Steamed Bun</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kimchi</t>
+  </si>
+  <si>
+    <t>Juice</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scorched Rice Soup/Mango juice</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scorched Rice Soup/Americano</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scorched Rice Soup/Cirtus Tea</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scorched Rice Soup/Hot Chocolate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scorched Rice Soup/Cinnamon Punch</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>D
+I
+n
+n
+e
+r</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;Dietary fiber intake&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kimchi Stew with</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Grilled Pork Belly with </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pork &amp; Rice Soup+noodles</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>Udon Soup</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Nagasaki Spicy Seafood</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rice</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;Pork Bowl with Bok choy&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bowl full of tempura</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Noodle with Crispy Rice</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sausage Stew+Ramen</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Egg Hamburger Steak</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Furigake Rice</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">       Triangular Kimbab</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Scrambled Eggs, Tomato</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Udon Salad</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Seasoned Bean Sprouts</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rakkyo&amp;Pickled ginger</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pickled Radish</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>French Fries&amp;Ketchup</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>음료</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Scorched Rice Soup/Mango juice</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Scorched Rice Soup/Americano</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Scorched Rice Soup/Cirtus Tea</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Scorched Rice Soup/Hot Chocolate</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Scorched Rice Soup/Cinnamon Punch</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>석식</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;Immunizing Food&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sweet Potato Rice</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>[Cheer up DAY]</t>
+    <t>Bean Sprout and Rice Soup</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Green Bean Sprouts </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;marinade</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -591,15 +674,15 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Boiled Chicken Soup</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sweet Rice Drink</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rice &amp;Acorn Jelly Soup</t>
+    <t>Fried Dumplings</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vegetable fried Rice</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sugar Glazed Sweet Potato</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -607,19 +690,15 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Stir-fried Pork</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sweet Potato Croquette</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Chicken Rice Porridge</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stir-fired Fish Cake</t>
+    <t>Sweet and Sour Pork</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seasoned Cucumber</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pickled Onion</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -627,19 +706,15 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Seasoned Lettuce</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pickled Vegetabls</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tortilla Tteok-galbi</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fish Cutlet&amp;Tartar S</t>
+    <t>Seasoend Young Radish</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yogurt</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sliced Radish Kimchi</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -674,7 +749,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -789,15 +864,15 @@
     <font>
       <b/>
       <sz val="35"/>
-      <color rgb="FFFF0066"/>
+      <color rgb="FF346129"/>
       <name val="HY강M"/>
       <family val="1"/>
       <charset val="129"/>
     </font>
     <font>
       <b/>
-      <sz val="36"/>
-      <color rgb="FFC00000"/>
+      <sz val="35"/>
+      <color rgb="FFFF0066"/>
       <name val="HY강M"/>
       <family val="1"/>
       <charset val="129"/>
@@ -811,16 +886,8 @@
     </font>
     <font>
       <b/>
-      <sz val="35"/>
-      <color rgb="FF346129"/>
-      <name val="HY강M"/>
-      <family val="1"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <b/>
       <sz val="36"/>
-      <color rgb="FF346129"/>
+      <color rgb="FFC00000"/>
       <name val="HY강M"/>
       <family val="1"/>
       <charset val="129"/>
@@ -863,6 +930,21 @@
     <font>
       <sz val="48"/>
       <color theme="1"/>
+      <name val="HY강M"/>
+      <family val="1"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="35"/>
+      <color rgb="FFCC0000"/>
+      <name val="HY강M"/>
+      <family val="1"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="26"/>
       <name val="HY강M"/>
       <family val="1"/>
       <charset val="129"/>
@@ -1021,16 +1103,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1082,76 +1164,85 @@
     <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="24" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="25" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1269,16 +1360,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>166688</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>285750</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1176337</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1104899</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>585788</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1287,88 +1378,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="12472988" y="6972300"/>
-          <a:ext cx="1009649" cy="471487"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FF0000"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="2400" b="1">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:latin typeface="MD아롱체" pitchFamily="18" charset="-127"/>
-              <a:ea typeface="MD아롱체" pitchFamily="18" charset="-127"/>
-            </a:rPr>
-            <a:t>NEW</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="4000" b="1">
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-            <a:latin typeface="HY나무M" pitchFamily="18" charset="-127"/>
-            <a:ea typeface="HY나무M" pitchFamily="18" charset="-127"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>261937</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1271586</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>561975</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="타원 3"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="22112287" y="8172450"/>
+          <a:off x="21945600" y="5414963"/>
           <a:ext cx="1009649" cy="466725"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -1431,25 +1441,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>119063</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>261937</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1057274</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>585788</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1152524</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="타원 4"/>
+        <xdr:cNvPr id="4" name="타원 3"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="17125950" y="7500938"/>
+          <a:off x="12430125" y="11834812"/>
           <a:ext cx="1009649" cy="466725"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -1592,24 +1602,30 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>166688</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>285750</xdr:rowOff>
+      <xdr:colOff>119063</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>238126</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1176337</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
+      <xdr:colOff>1128712</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>14288</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="타원 2"/>
+        <xdr:cNvPr id="3" name="타원 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="12472988" y="6972300"/>
+          <a:off x="12425363" y="11858626"/>
           <a:ext cx="1009649" cy="471487"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -1672,16 +1688,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>71437</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>214313</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>214313</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1081086</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>681038</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1223962</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>466725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1690,88 +1706,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="17149762" y="6900863"/>
-          <a:ext cx="1009649" cy="466725"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FF0000"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="2400" b="1">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:latin typeface="MD아롱체" pitchFamily="18" charset="-127"/>
-              <a:ea typeface="MD아롱체" pitchFamily="18" charset="-127"/>
-            </a:rPr>
-            <a:t>NEW</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="4000" b="1">
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-            <a:latin typeface="HY나무M" pitchFamily="18" charset="-127"/>
-            <a:ea typeface="HY나무M" pitchFamily="18" charset="-127"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>71437</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>166688</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1081086</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>633413</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="타원 4"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="21921787" y="8243888"/>
+          <a:off x="22026563" y="5976938"/>
           <a:ext cx="1009649" cy="466725"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -2125,10 +2060,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K45"/>
+  <dimension ref="A1:R45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" zoomScaleSheetLayoutView="40" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2136,7 +2071,7 @@
     <col min="1" max="1" width="10.625" style="2" customWidth="1"/>
     <col min="2" max="2" width="25.625" style="2" customWidth="1"/>
     <col min="3" max="3" width="62.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="62.625" style="31" customWidth="1"/>
+    <col min="4" max="4" width="62.625" style="35" customWidth="1"/>
     <col min="5" max="7" width="62.625" style="2" customWidth="1"/>
     <col min="8" max="8" width="8.625" style="2" customWidth="1"/>
     <col min="9" max="257" width="9" style="2"/>
@@ -2583,507 +2518,609 @@
     <col min="16136" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="120" customHeight="1" thickBot="1">
-      <c r="A1" s="41" t="s">
+    <row r="1" spans="1:18" ht="120" customHeight="1" thickBot="1">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:11" s="7" customFormat="1" ht="78" customHeight="1" thickTop="1" thickBot="1">
+    <row r="2" spans="1:18" s="7" customFormat="1" ht="78" customHeight="1" thickTop="1" thickBot="1">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="4">
-        <v>43927</v>
+        <v>43941</v>
       </c>
       <c r="D2" s="4">
         <f>C2+1</f>
-        <v>43928</v>
+        <v>43942</v>
       </c>
       <c r="E2" s="5">
         <f>D2+1</f>
-        <v>43929</v>
+        <v>43943</v>
       </c>
       <c r="F2" s="4">
         <f>E2+1</f>
-        <v>43930</v>
+        <v>43944</v>
       </c>
       <c r="G2" s="4">
         <f>F2+1</f>
-        <v>43931</v>
+        <v>43945</v>
       </c>
       <c r="H2" s="6"/>
     </row>
-    <row r="3" spans="1:11" s="11" customFormat="1" ht="54.95" customHeight="1" thickTop="1">
-      <c r="A3" s="42" t="s">
+    <row r="3" spans="1:18" s="11" customFormat="1" ht="54.95" customHeight="1" thickTop="1">
+      <c r="A3" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="45" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H3" s="10"/>
     </row>
-    <row r="4" spans="1:11" s="11" customFormat="1" ht="54.95" customHeight="1">
-      <c r="A4" s="43"/>
-      <c r="B4" s="45"/>
+    <row r="4" spans="1:18" s="11" customFormat="1" ht="54.95" customHeight="1">
+      <c r="A4" s="46"/>
+      <c r="B4" s="48"/>
       <c r="C4" s="12" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H4" s="10"/>
     </row>
-    <row r="5" spans="1:11" s="11" customFormat="1" ht="54.95" customHeight="1">
-      <c r="A5" s="43"/>
-      <c r="B5" s="45"/>
+    <row r="5" spans="1:18" s="11" customFormat="1" ht="54.95" customHeight="1">
+      <c r="A5" s="46"/>
+      <c r="B5" s="48"/>
       <c r="C5" s="14" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D5" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="16"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17"/>
+    </row>
+    <row r="6" spans="1:18" s="11" customFormat="1" ht="54.95" customHeight="1">
+      <c r="A6" s="46"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="10"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="17"/>
+    </row>
+    <row r="7" spans="1:18" s="11" customFormat="1" ht="54.95" customHeight="1">
+      <c r="A7" s="46"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="10"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="17"/>
+    </row>
+    <row r="8" spans="1:18" s="11" customFormat="1" ht="54.95" customHeight="1" thickBot="1">
+      <c r="A8" s="46"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="6"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="17"/>
+    </row>
+    <row r="9" spans="1:18" s="11" customFormat="1" ht="54.95" customHeight="1" thickTop="1">
+      <c r="A9" s="46"/>
+      <c r="B9" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="21"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="10"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="17"/>
+      <c r="R9" s="17"/>
+    </row>
+    <row r="10" spans="1:18" s="11" customFormat="1" ht="54.95" customHeight="1">
+      <c r="A10" s="46"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="16"/>
-    </row>
-    <row r="6" spans="1:11" s="11" customFormat="1" ht="54.95" customHeight="1">
-      <c r="A6" s="43"/>
-      <c r="B6" s="45"/>
-      <c r="C6" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" s="10"/>
-    </row>
-    <row r="7" spans="1:11" s="11" customFormat="1" ht="54.95" customHeight="1">
-      <c r="A7" s="43"/>
-      <c r="B7" s="45"/>
-      <c r="C7" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="10"/>
-    </row>
-    <row r="8" spans="1:11" s="11" customFormat="1" ht="54.95" customHeight="1" thickBot="1">
-      <c r="A8" s="43"/>
-      <c r="B8" s="45"/>
-      <c r="C8" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" s="6"/>
-    </row>
-    <row r="9" spans="1:11" s="11" customFormat="1" ht="54.95" customHeight="1" thickTop="1">
-      <c r="A9" s="43"/>
-      <c r="B9" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8" t="s">
+      <c r="H10" s="6"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="17"/>
+    </row>
+    <row r="11" spans="1:18" s="11" customFormat="1" ht="54.95" customHeight="1">
+      <c r="A11" s="46"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="10"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="25"/>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="17"/>
+    </row>
+    <row r="12" spans="1:18" s="11" customFormat="1" ht="54.95" customHeight="1">
+      <c r="A12" s="46"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="H12" s="10"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="17"/>
+    </row>
+    <row r="13" spans="1:18" s="11" customFormat="1" ht="54.95" customHeight="1">
+      <c r="A13" s="46"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" s="16"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="27"/>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="17"/>
+    </row>
+    <row r="14" spans="1:18" s="11" customFormat="1" ht="54.95" customHeight="1" thickBot="1">
+      <c r="A14" s="46"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="10"/>
-    </row>
-    <row r="10" spans="1:11" s="11" customFormat="1" ht="54.95" customHeight="1">
-      <c r="A10" s="43"/>
-      <c r="B10" s="43"/>
-      <c r="C10" s="12" t="s">
+      <c r="D14" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="E14" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="F14" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="20"/>
+      <c r="H14" s="10"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="17"/>
+      <c r="R14" s="17"/>
+    </row>
+    <row r="15" spans="1:18" s="11" customFormat="1" ht="60" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A15" s="47"/>
+      <c r="B15" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="G15" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="H15" s="10"/>
+      <c r="I15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="18"/>
+      <c r="Q15" s="17"/>
+      <c r="R15" s="17"/>
+    </row>
+    <row r="16" spans="1:18" ht="54.95" customHeight="1" thickTop="1">
+      <c r="A16" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="H10" s="6"/>
-    </row>
-    <row r="11" spans="1:11" s="11" customFormat="1" ht="54.95" customHeight="1">
-      <c r="A11" s="43"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="14" t="s">
+      <c r="C16" s="21"/>
+      <c r="D16" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="21"/>
+      <c r="F16" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="F11" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="H11" s="10"/>
-    </row>
-    <row r="12" spans="1:11" s="11" customFormat="1" ht="54.95" customHeight="1">
-      <c r="A12" s="43"/>
-      <c r="B12" s="43"/>
-      <c r="C12" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="H12" s="10"/>
-    </row>
-    <row r="13" spans="1:11" s="11" customFormat="1" ht="54.95" customHeight="1">
-      <c r="A13" s="43"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="H13" s="16"/>
-    </row>
-    <row r="14" spans="1:11" s="11" customFormat="1" ht="54.95" customHeight="1" thickBot="1">
-      <c r="A14" s="43"/>
-      <c r="B14" s="43"/>
-      <c r="C14" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="10"/>
-    </row>
-    <row r="15" spans="1:11" s="11" customFormat="1" ht="60" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A15" s="44"/>
-      <c r="B15" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="E15" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="F15" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="G15" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="H15" s="10"/>
-      <c r="I15" s="23"/>
-    </row>
-    <row r="16" spans="1:11" ht="54.95" customHeight="1" thickTop="1">
-      <c r="A16" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8" t="s">
-        <v>33</v>
-      </c>
+      <c r="G16" s="8"/>
       <c r="H16" s="10"/>
       <c r="I16" s="1"/>
       <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-    </row>
-    <row r="17" spans="1:11" ht="54.95" customHeight="1">
-      <c r="A17" s="43"/>
-      <c r="B17" s="43"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="18"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+    </row>
+    <row r="17" spans="1:18" ht="54.95" customHeight="1">
+      <c r="A17" s="46"/>
+      <c r="B17" s="46"/>
       <c r="C17" s="14" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="G17" s="20" t="s">
-        <v>50</v>
+        <v>31</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>59</v>
       </c>
       <c r="H17" s="10"/>
       <c r="I17" s="1"/>
       <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-    </row>
-    <row r="18" spans="1:11" ht="54.95" customHeight="1">
-      <c r="A18" s="43"/>
-      <c r="B18" s="43"/>
-      <c r="C18" s="14" t="s">
-        <v>51</v>
+      <c r="K17" s="17"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+    </row>
+    <row r="18" spans="1:18" ht="54.95" customHeight="1">
+      <c r="A18" s="46"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="12" t="s">
+        <v>30</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="E18" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="F18" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="G18" s="19" t="s">
-        <v>55</v>
+        <v>60</v>
+      </c>
+      <c r="E18" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>63</v>
       </c>
       <c r="H18" s="10"/>
       <c r="I18" s="1"/>
       <c r="J18" s="11"/>
       <c r="K18" s="11"/>
     </row>
-    <row r="19" spans="1:11" ht="54.95" customHeight="1">
-      <c r="A19" s="43"/>
-      <c r="B19" s="43"/>
+    <row r="19" spans="1:18" ht="54.95" customHeight="1">
+      <c r="A19" s="46"/>
+      <c r="B19" s="46"/>
       <c r="C19" s="12" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="G19" s="19" t="s">
-        <v>60</v>
+        <v>65</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>67</v>
       </c>
       <c r="H19" s="16"/>
       <c r="I19" s="1"/>
       <c r="J19" s="11"/>
       <c r="K19" s="11"/>
     </row>
-    <row r="20" spans="1:11" ht="54.95" customHeight="1">
-      <c r="A20" s="43"/>
-      <c r="B20" s="43"/>
-      <c r="C20" s="12" t="s">
-        <v>61</v>
+    <row r="20" spans="1:18" ht="54.95" customHeight="1">
+      <c r="A20" s="46"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="14" t="s">
+        <v>68</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="E20" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="F20" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="G20" s="12" t="s">
-        <v>65</v>
+        <v>69</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>70</v>
       </c>
       <c r="H20" s="10"/>
       <c r="I20" s="1"/>
       <c r="J20" s="11"/>
       <c r="K20" s="11"/>
     </row>
-    <row r="21" spans="1:11" ht="54.95" customHeight="1" thickBot="1">
-      <c r="A21" s="43"/>
-      <c r="B21" s="43"/>
-      <c r="C21" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="F21" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="17" t="s">
-        <v>24</v>
-      </c>
+    <row r="21" spans="1:18" ht="54.95" customHeight="1" thickBot="1">
+      <c r="A21" s="46"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21" s="20"/>
       <c r="H21" s="10"/>
       <c r="I21" s="1"/>
       <c r="J21" s="11"/>
       <c r="K21" s="11"/>
     </row>
-    <row r="22" spans="1:11" ht="54.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A22" s="44"/>
-      <c r="B22" s="44"/>
-      <c r="C22" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="D22" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="E22" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="F22" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="G22" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="H22" s="23"/>
+    <row r="22" spans="1:18" ht="54.95" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A22" s="47"/>
+      <c r="B22" s="47"/>
+      <c r="C22" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="E22" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="F22" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="G22" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="H22" s="17"/>
       <c r="I22" s="1"/>
       <c r="J22" s="11"/>
       <c r="K22" s="11"/>
     </row>
-    <row r="23" spans="1:11" s="30" customFormat="1" ht="42" customHeight="1" thickTop="1">
-      <c r="A23" s="28"/>
-      <c r="B23" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="29"/>
+    <row r="23" spans="1:18" s="34" customFormat="1" ht="42" customHeight="1" thickTop="1">
+      <c r="A23" s="32"/>
+      <c r="B23" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="33"/>
       <c r="J23" s="11"/>
     </row>
-    <row r="24" spans="1:11" s="30" customFormat="1" ht="42" customHeight="1">
-      <c r="A24" s="29"/>
-      <c r="B24" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="39"/>
+    <row r="24" spans="1:18" s="34" customFormat="1" ht="42" customHeight="1">
+      <c r="A24" s="33"/>
+      <c r="B24" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
       <c r="J24" s="11"/>
     </row>
-    <row r="25" spans="1:11" s="30" customFormat="1" ht="42" customHeight="1">
-      <c r="A25" s="29"/>
-      <c r="B25" s="40" t="s">
-        <v>70</v>
-      </c>
-      <c r="C25" s="40"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="40"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="40"/>
+    <row r="25" spans="1:18" s="34" customFormat="1" ht="42" customHeight="1">
+      <c r="A25" s="33"/>
+      <c r="B25" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" s="43"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="43"/>
       <c r="J25" s="11"/>
     </row>
-    <row r="26" spans="1:11" ht="39.950000000000003" customHeight="1">
+    <row r="26" spans="1:18" ht="39.950000000000003" customHeight="1">
       <c r="A26" s="1"/>
-      <c r="B26" s="39"/>
-      <c r="C26" s="39"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="39"/>
-    </row>
-    <row r="27" spans="1:11">
+      <c r="B26" s="42"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
+    </row>
+    <row r="27" spans="1:18">
       <c r="D27" s="2"/>
     </row>
-    <row r="28" spans="1:11" ht="0.75" customHeight="1"/>
+    <row r="28" spans="1:18" ht="0.75" customHeight="1"/>
     <row r="45" ht="285.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="10">
@@ -3113,7 +3150,7 @@
   <dimension ref="A1:AG45"/>
   <sheetViews>
     <sheetView zoomScale="40" zoomScaleNormal="40" zoomScaleSheetLayoutView="40" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3121,7 +3158,7 @@
     <col min="1" max="1" width="10.625" style="2" customWidth="1"/>
     <col min="2" max="2" width="25.625" style="2" customWidth="1"/>
     <col min="3" max="3" width="62.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="62.625" style="31" customWidth="1"/>
+    <col min="4" max="4" width="62.625" style="35" customWidth="1"/>
     <col min="5" max="7" width="62.625" style="2" customWidth="1"/>
     <col min="8" max="257" width="9" style="2"/>
     <col min="258" max="258" width="20.75" style="2" customWidth="1"/>
@@ -3568,458 +3605,462 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="120" customHeight="1" thickBot="1">
-      <c r="A1" s="41" t="s">
-        <v>71</v>
-      </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
+      <c r="A1" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
       <c r="AG1" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33" s="32" customFormat="1" ht="78" customHeight="1" thickTop="1" thickBot="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" s="36" customFormat="1" ht="78" customHeight="1" thickTop="1" thickBot="1">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="4">
-        <f>'04월06일'!C2</f>
-        <v>43927</v>
+        <f>'04월20일'!C2</f>
+        <v>43941</v>
       </c>
       <c r="D2" s="4">
         <f>C2+1</f>
-        <v>43928</v>
+        <v>43942</v>
       </c>
       <c r="E2" s="5">
         <f>D2+1</f>
-        <v>43929</v>
+        <v>43943</v>
       </c>
       <c r="F2" s="4">
         <f>E2+1</f>
-        <v>43930</v>
+        <v>43944</v>
       </c>
       <c r="G2" s="4">
         <f>F2+1</f>
-        <v>43931</v>
+        <v>43945</v>
       </c>
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
     </row>
     <row r="3" spans="1:33" s="11" customFormat="1" ht="54.95" customHeight="1" thickTop="1">
-      <c r="A3" s="42" t="s">
-        <v>73</v>
-      </c>
-      <c r="B3" s="42" t="s">
-        <v>74</v>
+      <c r="A3" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="45" t="s">
+        <v>81</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>75</v>
+        <v>82</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:33" s="11" customFormat="1" ht="54.95" customHeight="1">
-      <c r="A4" s="43"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="12" t="s">
-        <v>76</v>
+      <c r="A4" s="46"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="13" t="s">
+        <v>84</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>79</v>
+        <v>86</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>87</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:33" s="11" customFormat="1" ht="54.95" customHeight="1">
-      <c r="A5" s="43"/>
-      <c r="B5" s="45"/>
-      <c r="C5" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>82</v>
+      <c r="A5" s="46"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>90</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>85</v>
+        <v>92</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:33" s="11" customFormat="1" ht="54.95" customHeight="1">
-      <c r="A6" s="43"/>
-      <c r="B6" s="45"/>
-      <c r="C6" s="12" t="s">
-        <v>86</v>
+      <c r="A6" s="46"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="13" t="s">
+        <v>94</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>90</v>
+        <v>96</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:33" s="11" customFormat="1" ht="54.95" customHeight="1">
-      <c r="A7" s="43"/>
-      <c r="B7" s="45"/>
-      <c r="C7" s="12" t="s">
-        <v>91</v>
+      <c r="A7" s="46"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="13" t="s">
+        <v>99</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>95</v>
+        <v>101</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:33" s="11" customFormat="1" ht="54.95" customHeight="1" thickBot="1">
-      <c r="A8" s="43"/>
-      <c r="B8" s="45"/>
-      <c r="C8" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>96</v>
+      <c r="A8" s="46"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>104</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:33" s="11" customFormat="1" ht="54.95" customHeight="1" thickTop="1">
-      <c r="A9" s="43"/>
-      <c r="B9" s="42" t="s">
-        <v>97</v>
-      </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8" t="s">
-        <v>98</v>
-      </c>
+      <c r="A9" s="46"/>
+      <c r="B9" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="D9" s="21"/>
       <c r="E9" s="8"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="33" t="s">
-        <v>99</v>
-      </c>
+      <c r="F9" s="22"/>
+      <c r="G9" s="8"/>
     </row>
     <row r="10" spans="1:33" s="11" customFormat="1" ht="54.95" customHeight="1">
-      <c r="A10" s="43"/>
-      <c r="B10" s="43"/>
+      <c r="A10" s="46"/>
+      <c r="B10" s="46"/>
       <c r="C10" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="D10" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="F10" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>103</v>
+        <v>108</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:33" s="11" customFormat="1" ht="54.95" customHeight="1">
-      <c r="A11" s="43"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="19" t="s">
+      <c r="A11" s="46"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="G11" s="37" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" s="11" customFormat="1" ht="54.95" customHeight="1">
+      <c r="A12" s="46"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" s="11" customFormat="1" ht="54.95" customHeight="1">
+      <c r="A13" s="46"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" s="11" customFormat="1" ht="54.95" customHeight="1" thickBot="1">
+      <c r="A14" s="46"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D14" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="E14" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="E11" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="F11" s="20" t="s">
+      <c r="F14" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="G14" s="20"/>
+    </row>
+    <row r="15" spans="1:33" s="11" customFormat="1" ht="60" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A15" s="47"/>
+      <c r="B15" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="E15" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="F15" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="G15" s="29" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" ht="54.95" customHeight="1" thickTop="1">
+      <c r="A16" s="45" t="s">
+        <v>134</v>
+      </c>
+      <c r="B16" s="45" t="s">
         <v>106</v>
       </c>
-      <c r="G11" s="14" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="12" spans="1:33" s="11" customFormat="1" ht="54.95" customHeight="1">
-      <c r="A12" s="43"/>
-      <c r="B12" s="43"/>
-      <c r="C12" s="14" t="s">
+      <c r="C16" s="21"/>
+      <c r="D16" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="E16" s="14"/>
+      <c r="F16" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="D12" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="13" spans="1:33" s="11" customFormat="1" ht="54.95" customHeight="1">
-      <c r="A13" s="43"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="14" spans="1:33" s="11" customFormat="1" ht="54.95" customHeight="1" thickBot="1">
-      <c r="A14" s="43"/>
-      <c r="B14" s="43"/>
-      <c r="C14" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-    </row>
-    <row r="15" spans="1:33" s="11" customFormat="1" ht="60" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A15" s="44"/>
-      <c r="B15" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="D15" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="E15" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="F15" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="G15" s="22" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="16" spans="1:33" ht="54.95" customHeight="1" thickTop="1">
-      <c r="A16" s="42" t="s">
-        <v>120</v>
-      </c>
-      <c r="B16" s="42" t="s">
-        <v>97</v>
-      </c>
-      <c r="C16" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="D16" s="24"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8" t="s">
-        <v>98</v>
-      </c>
+      <c r="G16" s="8"/>
       <c r="H16" s="11"/>
       <c r="I16" s="11"/>
       <c r="J16" s="11"/>
     </row>
     <row r="17" spans="1:9" ht="54.95" customHeight="1">
-      <c r="A17" s="43"/>
-      <c r="B17" s="43"/>
+      <c r="A17" s="46"/>
+      <c r="B17" s="46"/>
       <c r="C17" s="14" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="E17" s="35" t="s">
-        <v>123</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="G17" s="19" t="s">
-        <v>124</v>
+        <v>108</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>139</v>
       </c>
       <c r="H17" s="11"/>
     </row>
     <row r="18" spans="1:9" ht="54.95" customHeight="1">
-      <c r="A18" s="43"/>
-      <c r="B18" s="43"/>
+      <c r="A18" s="46"/>
+      <c r="B18" s="46"/>
       <c r="C18" s="12" t="s">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="F18" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="G18" s="19" t="s">
-        <v>128</v>
+        <v>140</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="G18" s="24" t="s">
+        <v>143</v>
       </c>
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
     </row>
     <row r="19" spans="1:9" ht="54.95" customHeight="1">
-      <c r="A19" s="43"/>
-      <c r="B19" s="43"/>
-      <c r="C19" s="14" t="s">
-        <v>129</v>
+      <c r="A19" s="46"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="38" t="s">
+        <v>120</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="G19" s="19" t="s">
-        <v>133</v>
+        <v>145</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="G19" s="24" t="s">
+        <v>147</v>
       </c>
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
     </row>
     <row r="20" spans="1:9" ht="54.95" customHeight="1">
-      <c r="A20" s="43"/>
-      <c r="B20" s="43"/>
-      <c r="C20" s="12" t="s">
-        <v>134</v>
+      <c r="A20" s="46"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="14" t="s">
+        <v>148</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="F20" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="G20" s="12" t="s">
-        <v>138</v>
+        <v>125</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="G20" s="24" t="s">
+        <v>151</v>
       </c>
       <c r="H20" s="11"/>
       <c r="I20" s="11"/>
     </row>
     <row r="21" spans="1:9" ht="54.95" customHeight="1" thickBot="1">
-      <c r="A21" s="43"/>
-      <c r="B21" s="43"/>
-      <c r="C21" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>96</v>
+      <c r="A21" s="46"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>153</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="F21" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="G21" s="17"/>
+        <v>105</v>
+      </c>
+      <c r="F21" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="G21" s="20" t="s">
+        <v>155</v>
+      </c>
       <c r="H21" s="11"/>
       <c r="I21" s="11"/>
     </row>
     <row r="22" spans="1:9" ht="54.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A22" s="44"/>
-      <c r="B22" s="44"/>
-      <c r="C22" s="36" t="s">
-        <v>139</v>
-      </c>
-      <c r="D22" s="36" t="s">
-        <v>139</v>
-      </c>
-      <c r="E22" s="36" t="s">
-        <v>139</v>
-      </c>
-      <c r="F22" s="37" t="s">
-        <v>140</v>
-      </c>
-      <c r="G22" s="37" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" s="30" customFormat="1" ht="42" customHeight="1" thickTop="1">
-      <c r="B23" s="38" t="s">
-        <v>141</v>
-      </c>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="38"/>
-    </row>
-    <row r="24" spans="1:9" s="30" customFormat="1" ht="42" customHeight="1">
-      <c r="B24" s="39" t="s">
-        <v>142</v>
-      </c>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="39"/>
-    </row>
-    <row r="25" spans="1:9" s="30" customFormat="1" ht="42" customHeight="1">
-      <c r="B25" s="39" t="s">
-        <v>143</v>
-      </c>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="39"/>
+      <c r="A22" s="47"/>
+      <c r="B22" s="47"/>
+      <c r="C22" s="39" t="s">
+        <v>156</v>
+      </c>
+      <c r="D22" s="39" t="s">
+        <v>156</v>
+      </c>
+      <c r="E22" s="39" t="s">
+        <v>156</v>
+      </c>
+      <c r="F22" s="40" t="s">
+        <v>157</v>
+      </c>
+      <c r="G22" s="40" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" s="34" customFormat="1" ht="42" customHeight="1" thickTop="1">
+      <c r="B23" s="41" t="s">
+        <v>158</v>
+      </c>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
+    </row>
+    <row r="24" spans="1:9" s="34" customFormat="1" ht="42" customHeight="1">
+      <c r="B24" s="42" t="s">
+        <v>159</v>
+      </c>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+    </row>
+    <row r="25" spans="1:9" s="34" customFormat="1" ht="42" customHeight="1">
+      <c r="B25" s="42" t="s">
+        <v>160</v>
+      </c>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
     </row>
     <row r="26" spans="1:9" ht="39.950000000000003" customHeight="1">
       <c r="B26" s="1"/>
